--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Prep\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79FFEDD-9A69-4E72-8F06-554AEE8B334B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87953EE6-3575-403A-ABB9-E11F5B387639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView minimized="1" xWindow="1632" yWindow="576" windowWidth="18528" windowHeight="8880" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1544,13 +1544,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,14 +1561,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:G482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1922,14 +1922,14 @@
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="21">
       <c r="A6" s="5" t="s">
@@ -1941,16 +1941,16 @@
       <c r="C6" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <f>COUNTIF(C6:C481,C6)</f>
-        <v>4</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <f>COUNTIF(C6:C481,C481)</f>
-        <v>444</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>441</v>
+      </c>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="21">
       <c r="A7" s="5" t="s">
@@ -1962,10 +1962,10 @@
       <c r="C7" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="21">
       <c r="A8" s="5" t="s">
@@ -1989,13 +1989,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E9" s="12">
+        <v>465</v>
+      </c>
+      <c r="E9" s="13">
         <f>D6/F6*100</f>
-        <v>0.90090090090090091</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="21">
       <c r="A10" s="5" t="s">
@@ -2007,8 +2007,8 @@
       <c r="C10" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="21">
       <c r="A11" s="5" t="s">
@@ -2018,11 +2018,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="21">
       <c r="A12" s="5" t="s">
@@ -2032,11 +2032,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="21">
       <c r="A13" s="5" t="s">
@@ -2046,11 +2046,11 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="5" t="s">
@@ -2062,9 +2062,9 @@
       <c r="C14" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="5" t="s">
@@ -2076,9 +2076,9 @@
       <c r="C15" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="5" t="s">
@@ -2090,9 +2090,9 @@
       <c r="C16" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="21">
       <c r="A17" s="5" t="s">
@@ -2104,9 +2104,9 @@
       <c r="C17" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="21">
       <c r="A18" s="5" t="s">
@@ -2118,9 +2118,9 @@
       <c r="C18" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="21">
       <c r="A19" s="5" t="s">
@@ -2132,9 +2132,9 @@
       <c r="C19" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="21">
       <c r="A20" s="5" t="s">
@@ -2146,9 +2146,9 @@
       <c r="C20" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="21">
       <c r="A21" s="5" t="s">
@@ -2160,9 +2160,9 @@
       <c r="C21" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="21">
       <c r="A22" s="5" t="s">
@@ -2174,9 +2174,9 @@
       <c r="C22" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="21">
       <c r="A23" s="5" t="s">
@@ -2188,9 +2188,9 @@
       <c r="C23" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="21">
       <c r="A24" s="5" t="s">
@@ -2202,9 +2202,9 @@
       <c r="C24" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="21">
       <c r="A25" s="5" t="s">
@@ -2216,9 +2216,9 @@
       <c r="C25" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="21">
       <c r="A26" s="5" t="s">
@@ -2230,9 +2230,9 @@
       <c r="C26" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="21">
       <c r="A27" s="5" t="s">
@@ -2244,9 +2244,9 @@
       <c r="C27" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="21">
       <c r="A28" s="5" t="s">
@@ -2258,9 +2258,9 @@
       <c r="C28" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="21">
       <c r="A29" s="5" t="s">
@@ -2272,9 +2272,9 @@
       <c r="C29" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="21">
       <c r="A30" s="5" t="s">
@@ -2286,9 +2286,9 @@
       <c r="C30" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="21">
       <c r="A31" s="5" t="s">
@@ -2300,9 +2300,9 @@
       <c r="C31" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="21">
       <c r="A32" s="5" t="s">
@@ -2314,9 +2314,9 @@
       <c r="C32" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="21">
       <c r="A33" s="5" t="s">
@@ -2328,9 +2328,9 @@
       <c r="C33" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="21">
       <c r="A34" s="5" t="s">
@@ -2342,9 +2342,9 @@
       <c r="C34" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="21">
       <c r="A35" s="5" t="s">
@@ -2356,9 +2356,9 @@
       <c r="C35" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="21">
       <c r="A36" s="5" t="s">
@@ -2370,9 +2370,9 @@
       <c r="C36" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="21">
       <c r="A37" s="5" t="s">
@@ -2384,9 +2384,9 @@
       <c r="C37" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="21">
       <c r="A38" s="5" t="s">
@@ -2398,9 +2398,9 @@
       <c r="C38" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="21">
       <c r="A39" s="5" t="s">
@@ -2412,9 +2412,9 @@
       <c r="C39" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="21">
       <c r="A40" s="5" t="s">
@@ -2426,9 +2426,9 @@
       <c r="C40" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="21">
       <c r="A41" s="5" t="s">
@@ -2440,24 +2440,24 @@
       <c r="C41" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" ht="21">
       <c r="A44" s="8" t="s">
@@ -2469,9 +2469,9 @@
       <c r="C44" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="21">
       <c r="A45" s="8" t="s">
@@ -2483,9 +2483,9 @@
       <c r="C45" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" ht="21">
       <c r="A46" s="8" t="s">
@@ -2497,9 +2497,9 @@
       <c r="C46" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" ht="21">
       <c r="A47" s="8" t="s">
@@ -2511,9 +2511,9 @@
       <c r="C47" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" ht="21">
       <c r="A48" s="8" t="s">
@@ -2525,9 +2525,9 @@
       <c r="C48" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" ht="21">
       <c r="A49" s="8" t="s">
@@ -2539,9 +2539,9 @@
       <c r="C49" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" ht="21">
       <c r="A50" s="8" t="s">
@@ -2553,9 +2553,9 @@
       <c r="C50" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" ht="21">
       <c r="A51" s="8" t="s">
@@ -2567,9 +2567,9 @@
       <c r="C51" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" ht="21">
       <c r="A52" s="8" t="s">
@@ -2581,9 +2581,9 @@
       <c r="C52" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" ht="21">
       <c r="A53" s="8" t="s">
@@ -2595,23 +2595,23 @@
       <c r="C53" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6">
       <c r="C54" s="4"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" ht="21">
       <c r="A56" s="5" t="s">
@@ -2623,9 +2623,9 @@
       <c r="C56" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" ht="21">
       <c r="A57" s="5" t="s">
@@ -2637,9 +2637,9 @@
       <c r="C57" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" ht="21">
       <c r="A58" s="5" t="s">
@@ -2651,9 +2651,9 @@
       <c r="C58" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="21">
       <c r="A59" s="5" t="s">
@@ -2665,9 +2665,9 @@
       <c r="C59" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" ht="21">
       <c r="A60" s="5" t="s">
@@ -2679,9 +2679,9 @@
       <c r="C60" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" ht="21">
       <c r="A61" s="5" t="s">
@@ -2693,9 +2693,9 @@
       <c r="C61" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" ht="21">
       <c r="A62" s="5" t="s">
@@ -2707,9 +2707,9 @@
       <c r="C62" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" ht="21">
       <c r="A63" s="5" t="s">
@@ -2721,9 +2721,9 @@
       <c r="C63" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" ht="21">
       <c r="A64" s="5" t="s">
@@ -2735,9 +2735,9 @@
       <c r="C64" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" ht="21">
       <c r="A65" s="5" t="s">
@@ -2749,9 +2749,9 @@
       <c r="C65" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" ht="21">
       <c r="A66" s="5" t="s">
@@ -2763,9 +2763,9 @@
       <c r="C66" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" ht="21">
       <c r="A67" s="5" t="s">
@@ -2777,9 +2777,9 @@
       <c r="C67" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" ht="21">
       <c r="A68" s="5" t="s">
@@ -2791,9 +2791,9 @@
       <c r="C68" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" ht="21">
       <c r="A69" s="5" t="s">
@@ -2805,9 +2805,9 @@
       <c r="C69" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" ht="21">
       <c r="A70" s="5" t="s">
@@ -2819,9 +2819,9 @@
       <c r="C70" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" ht="21">
       <c r="A71" s="5" t="s">
@@ -2833,9 +2833,9 @@
       <c r="C71" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" ht="21">
       <c r="A72" s="5" t="s">
@@ -2847,9 +2847,9 @@
       <c r="C72" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" ht="21">
       <c r="A73" s="5" t="s">
@@ -2861,9 +2861,9 @@
       <c r="C73" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" ht="21">
       <c r="A74" s="5" t="s">
@@ -2875,9 +2875,9 @@
       <c r="C74" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" ht="21">
       <c r="A75" s="5" t="s">
@@ -2889,9 +2889,9 @@
       <c r="C75" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" ht="21">
       <c r="A76" s="5" t="s">
@@ -2903,9 +2903,9 @@
       <c r="C76" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" ht="21">
       <c r="A77" s="5" t="s">
@@ -2917,9 +2917,9 @@
       <c r="C77" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" ht="21">
       <c r="A78" s="5" t="s">
@@ -2931,9 +2931,9 @@
       <c r="C78" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" ht="21">
       <c r="A79" s="5" t="s">
@@ -2945,9 +2945,9 @@
       <c r="C79" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" ht="21">
       <c r="A80" s="5" t="s">
@@ -2959,9 +2959,9 @@
       <c r="C80" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" ht="21">
       <c r="A81" s="5" t="s">
@@ -2973,9 +2973,9 @@
       <c r="C81" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" ht="21">
       <c r="A82" s="5" t="s">
@@ -2987,9 +2987,9 @@
       <c r="C82" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" ht="21">
       <c r="A83" s="5" t="s">
@@ -3001,9 +3001,9 @@
       <c r="C83" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" ht="21">
       <c r="A84" s="5" t="s">
@@ -3015,9 +3015,9 @@
       <c r="C84" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" ht="21">
       <c r="A85" s="5" t="s">
@@ -3029,9 +3029,9 @@
       <c r="C85" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" ht="21">
       <c r="A86" s="5" t="s">
@@ -3043,9 +3043,9 @@
       <c r="C86" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="21">
       <c r="A87" s="5" t="s">
@@ -3057,9 +3057,9 @@
       <c r="C87" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" ht="21">
       <c r="A88" s="5" t="s">
@@ -3071,9 +3071,9 @@
       <c r="C88" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" ht="21">
       <c r="A89" s="5" t="s">
@@ -3085,9 +3085,9 @@
       <c r="C89" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" ht="21">
       <c r="A90" s="5" t="s">
@@ -3099,9 +3099,9 @@
       <c r="C90" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" ht="21">
       <c r="A91" s="5" t="s">
@@ -3113,9 +3113,9 @@
       <c r="C91" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" ht="21">
       <c r="A92" s="5" t="s">
@@ -3127,9 +3127,9 @@
       <c r="C92" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" ht="21">
       <c r="A93" s="5" t="s">
@@ -3141,9 +3141,9 @@
       <c r="C93" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" ht="21">
       <c r="A94" s="5" t="s">
@@ -3155,9 +3155,9 @@
       <c r="C94" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" ht="21">
       <c r="A95" s="5" t="s">
@@ -3169,9 +3169,9 @@
       <c r="C95" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" ht="21">
       <c r="A96" s="5" t="s">
@@ -3183,9 +3183,9 @@
       <c r="C96" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" ht="21">
       <c r="A97" s="5" t="s">
@@ -3197,9 +3197,9 @@
       <c r="C97" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" ht="21">
       <c r="A98" s="5" t="s">
@@ -3211,23 +3211,23 @@
       <c r="C98" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="4"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" ht="21">
       <c r="A101" s="5" t="s">
@@ -3239,9 +3239,9 @@
       <c r="C101" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6" ht="21">
       <c r="A102" s="5" t="s">
@@ -3253,9 +3253,9 @@
       <c r="C102" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" ht="21">
       <c r="A103" s="5" t="s">
@@ -3267,9 +3267,9 @@
       <c r="C103" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6" ht="21">
       <c r="A104" s="5" t="s">
@@ -3281,9 +3281,9 @@
       <c r="C104" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6" ht="21">
       <c r="A105" s="5" t="s">
@@ -3295,9 +3295,9 @@
       <c r="C105" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6" ht="21">
       <c r="A106" s="5" t="s">
@@ -3309,9 +3309,9 @@
       <c r="C106" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6" ht="21">
       <c r="A107" s="5" t="s">
@@ -3323,9 +3323,9 @@
       <c r="C107" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6" ht="21">
       <c r="A108" s="5" t="s">
@@ -3337,9 +3337,9 @@
       <c r="C108" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6" ht="21">
       <c r="A109" s="5" t="s">
@@ -3351,9 +3351,9 @@
       <c r="C109" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6" ht="21">
       <c r="A110" s="5" t="s">
@@ -3365,9 +3365,9 @@
       <c r="C110" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6" ht="21">
       <c r="A111" s="5" t="s">
@@ -3379,9 +3379,9 @@
       <c r="C111" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6" ht="21">
       <c r="A112" s="5" t="s">
@@ -3393,9 +3393,9 @@
       <c r="C112" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6" ht="21">
       <c r="A113" s="5" t="s">
@@ -3407,9 +3407,9 @@
       <c r="C113" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6" ht="21">
       <c r="A114" s="5" t="s">
@@ -3421,9 +3421,9 @@
       <c r="C114" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6" ht="21">
       <c r="A115" s="5" t="s">
@@ -3435,9 +3435,9 @@
       <c r="C115" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6" ht="21">
       <c r="A116" s="5" t="s">
@@ -3449,9 +3449,9 @@
       <c r="C116" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6" ht="21">
       <c r="A117" s="5" t="s">
@@ -3463,9 +3463,9 @@
       <c r="C117" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6" ht="21">
       <c r="A118" s="5" t="s">
@@ -3477,9 +3477,9 @@
       <c r="C118" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:6" ht="21">
       <c r="A119" s="5" t="s">
@@ -3491,9 +3491,9 @@
       <c r="C119" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6" ht="21">
       <c r="A120" s="5" t="s">
@@ -3505,9 +3505,9 @@
       <c r="C120" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6" ht="21">
       <c r="A121" s="5" t="s">
@@ -3519,9 +3519,9 @@
       <c r="C121" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6" ht="21">
       <c r="A122" s="5" t="s">
@@ -3533,9 +3533,9 @@
       <c r="C122" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6" ht="21">
       <c r="A123" s="5" t="s">
@@ -3547,9 +3547,9 @@
       <c r="C123" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6" ht="21">
       <c r="A124" s="5" t="s">
@@ -3561,9 +3561,9 @@
       <c r="C124" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6" ht="21">
       <c r="A125" s="5" t="s">
@@ -3575,9 +3575,9 @@
       <c r="C125" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" ht="21">
       <c r="A126" s="5" t="s">
@@ -3589,9 +3589,9 @@
       <c r="C126" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6" ht="21">
       <c r="A127" s="5" t="s">
@@ -3603,9 +3603,9 @@
       <c r="C127" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6" ht="21">
       <c r="A128" s="5" t="s">
@@ -3617,9 +3617,9 @@
       <c r="C128" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6" ht="21">
       <c r="A129" s="5" t="s">
@@ -3631,9 +3631,9 @@
       <c r="C129" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6" ht="21">
       <c r="A130" s="5" t="s">
@@ -3645,9 +3645,9 @@
       <c r="C130" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6" ht="21">
       <c r="A131" s="5" t="s">
@@ -3659,9 +3659,9 @@
       <c r="C131" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6" ht="21">
       <c r="A132" s="5" t="s">
@@ -3673,9 +3673,9 @@
       <c r="C132" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6" ht="21">
       <c r="A133" s="5" t="s">
@@ -3687,9 +3687,9 @@
       <c r="C133" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6" ht="21">
       <c r="A134" s="5" t="s">
@@ -3701,9 +3701,9 @@
       <c r="C134" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" spans="1:6" ht="21">
       <c r="A135" s="5" t="s">
@@ -3715,9 +3715,9 @@
       <c r="C135" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:6" ht="21">
       <c r="A136" s="5" t="s">
@@ -3729,22 +3729,22 @@
       <c r="C136" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:6">
       <c r="C137" s="4"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:6" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6" ht="21">
       <c r="A139" s="8" t="s">
@@ -3756,9 +3756,9 @@
       <c r="C139" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:6" ht="21">
       <c r="A140" s="8" t="s">
@@ -3770,9 +3770,9 @@
       <c r="C140" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" spans="1:6" ht="21">
       <c r="A141" s="8" t="s">
@@ -3784,9 +3784,9 @@
       <c r="C141" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" spans="1:6" ht="21">
       <c r="A142" s="8" t="s">
@@ -3798,9 +3798,9 @@
       <c r="C142" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6" ht="21">
       <c r="A143" s="8" t="s">
@@ -3812,9 +3812,9 @@
       <c r="C143" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:6" ht="21">
       <c r="A144" s="8" t="s">
@@ -3826,9 +3826,9 @@
       <c r="C144" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:6" ht="21">
       <c r="A145" s="8" t="s">
@@ -3840,9 +3840,9 @@
       <c r="C145" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="8" t="s">
@@ -3854,9 +3854,9 @@
       <c r="C146" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" spans="1:6" ht="21">
       <c r="A147" s="8" t="s">
@@ -3868,9 +3868,9 @@
       <c r="C147" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
     </row>
     <row r="148" spans="1:6" ht="21">
       <c r="A148" s="8" t="s">
@@ -3882,9 +3882,9 @@
       <c r="C148" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
     </row>
     <row r="149" spans="1:6" ht="21">
       <c r="A149" s="8" t="s">
@@ -3896,9 +3896,9 @@
       <c r="C149" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" spans="1:6" ht="21">
       <c r="A150" s="8" t="s">
@@ -3910,9 +3910,9 @@
       <c r="C150" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" spans="1:6" ht="21">
       <c r="A151" s="8" t="s">
@@ -3924,9 +3924,9 @@
       <c r="C151" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6" ht="21">
       <c r="A152" s="8" t="s">
@@ -3938,9 +3938,9 @@
       <c r="C152" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6" ht="21">
       <c r="A153" s="8" t="s">
@@ -3952,9 +3952,9 @@
       <c r="C153" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" spans="1:6" ht="21">
       <c r="A154" s="8" t="s">
@@ -3966,9 +3966,9 @@
       <c r="C154" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="8" t="s">
@@ -3980,9 +3980,9 @@
       <c r="C155" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" spans="1:6" ht="21">
       <c r="A156" s="8" t="s">
@@ -3994,9 +3994,9 @@
       <c r="C156" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6" ht="21">
       <c r="A157" s="8" t="s">
@@ -4008,9 +4008,9 @@
       <c r="C157" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" spans="1:6" ht="21">
       <c r="A158" s="8" t="s">
@@ -4022,9 +4022,9 @@
       <c r="C158" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:6" ht="21">
       <c r="A159" s="8" t="s">
@@ -4036,9 +4036,9 @@
       <c r="C159" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:6" ht="21">
       <c r="A160" s="8" t="s">
@@ -4050,9 +4050,9 @@
       <c r="C160" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:6" ht="21">
       <c r="A161" s="8" t="s">
@@ -4064,9 +4064,9 @@
       <c r="C161" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" spans="1:6" ht="21">
       <c r="A162" s="8" t="s">
@@ -4078,9 +4078,9 @@
       <c r="C162" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
     </row>
     <row r="163" spans="1:6" ht="21">
       <c r="A163" s="8" t="s">
@@ -4092,9 +4092,9 @@
       <c r="C163" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" spans="1:6" ht="21">
       <c r="A164" s="8" t="s">
@@ -4106,9 +4106,9 @@
       <c r="C164" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6" ht="21">
       <c r="A165" s="8" t="s">
@@ -4120,9 +4120,9 @@
       <c r="C165" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" spans="1:6" ht="21">
       <c r="A166" s="8" t="s">
@@ -4134,9 +4134,9 @@
       <c r="C166" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
     </row>
     <row r="167" spans="1:6" ht="21">
       <c r="A167" s="8" t="s">
@@ -4148,9 +4148,9 @@
       <c r="C167" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
     </row>
     <row r="168" spans="1:6" ht="21">
       <c r="A168" s="8" t="s">
@@ -4162,9 +4162,9 @@
       <c r="C168" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" spans="1:6" ht="21">
       <c r="A169" s="8" t="s">
@@ -4176,9 +4176,9 @@
       <c r="C169" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" spans="1:6" ht="21">
       <c r="A170" s="8" t="s">
@@ -4190,9 +4190,9 @@
       <c r="C170" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:6" ht="21">
       <c r="A171" s="8" t="s">
@@ -4204,9 +4204,9 @@
       <c r="C171" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:6" ht="21">
       <c r="A172" s="8" t="s">
@@ -4218,9 +4218,9 @@
       <c r="C172" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
     </row>
     <row r="173" spans="1:6" ht="21">
       <c r="A173" s="8" t="s">
@@ -4232,9 +4232,9 @@
       <c r="C173" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
     </row>
     <row r="174" spans="1:6" ht="21">
       <c r="A174" s="8" t="s">
@@ -4246,24 +4246,24 @@
       <c r="C174" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:6">
       <c r="C175" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
     </row>
     <row r="176" spans="1:6" ht="21">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
     </row>
     <row r="177" spans="1:6" ht="21">
       <c r="A177" s="5" t="s">
@@ -4273,9 +4273,9 @@
         <v>172</v>
       </c>
       <c r="C177" s="4"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
     </row>
     <row r="178" spans="1:6" ht="21">
       <c r="A178" s="5" t="s">
@@ -4287,9 +4287,9 @@
       <c r="C178" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
     </row>
     <row r="179" spans="1:6" ht="21">
       <c r="A179" s="5" t="s">
@@ -4301,9 +4301,9 @@
       <c r="C179" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
     </row>
     <row r="180" spans="1:6" ht="21">
       <c r="A180" s="5" t="s">
@@ -4315,9 +4315,9 @@
       <c r="C180" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
     </row>
     <row r="181" spans="1:6" ht="21">
       <c r="A181" s="5" t="s">
@@ -4329,9 +4329,9 @@
       <c r="C181" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
     </row>
     <row r="182" spans="1:6" ht="21">
       <c r="A182" s="5" t="s">
@@ -4343,9 +4343,9 @@
       <c r="C182" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
     </row>
     <row r="183" spans="1:6" ht="21">
       <c r="A183" s="5" t="s">
@@ -4357,9 +4357,9 @@
       <c r="C183" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:6" ht="21">
       <c r="A184" s="5" t="s">
@@ -4371,9 +4371,9 @@
       <c r="C184" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
     </row>
     <row r="185" spans="1:6" ht="21">
       <c r="A185" s="5" t="s">
@@ -4385,9 +4385,9 @@
       <c r="C185" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
     </row>
     <row r="186" spans="1:6" ht="21">
       <c r="A186" s="5" t="s">
@@ -4399,9 +4399,9 @@
       <c r="C186" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:6" ht="21">
       <c r="A187" s="5" t="s">
@@ -4413,9 +4413,9 @@
       <c r="C187" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:6" ht="21">
       <c r="A188" s="5" t="s">
@@ -4427,9 +4427,9 @@
       <c r="C188" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:6" ht="21">
       <c r="A189" s="5" t="s">
@@ -4441,9 +4441,9 @@
       <c r="C189" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:6" ht="21">
       <c r="A190" s="5" t="s">
@@ -4455,9 +4455,9 @@
       <c r="C190" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:6" ht="21">
       <c r="A191" s="5" t="s">
@@ -4469,9 +4469,9 @@
       <c r="C191" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:6" ht="21">
       <c r="A192" s="5" t="s">
@@ -4483,9 +4483,9 @@
       <c r="C192" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
     </row>
     <row r="193" spans="1:6" ht="21">
       <c r="A193" s="5" t="s">
@@ -4497,9 +4497,9 @@
       <c r="C193" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
     </row>
     <row r="194" spans="1:6" ht="21">
       <c r="A194" s="5" t="s">
@@ -4511,9 +4511,9 @@
       <c r="C194" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="13"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:6" ht="21">
       <c r="A195" s="5" t="s">
@@ -4525,9 +4525,9 @@
       <c r="C195" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:6" ht="21">
       <c r="A196" s="5" t="s">
@@ -4539,9 +4539,9 @@
       <c r="C196" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
     </row>
     <row r="197" spans="1:6" ht="21">
       <c r="A197" s="5" t="s">
@@ -4553,9 +4553,9 @@
       <c r="C197" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
     </row>
     <row r="198" spans="1:6" ht="21">
       <c r="A198" s="5" t="s">
@@ -4567,9 +4567,9 @@
       <c r="C198" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:6" ht="21">
       <c r="A199" s="5" t="s">
@@ -4581,9 +4581,9 @@
       <c r="C199" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:6" ht="21">
       <c r="A200" s="5" t="s">
@@ -4595,9 +4595,9 @@
       <c r="C200" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
     </row>
     <row r="201" spans="1:6" ht="21">
       <c r="A201" s="5" t="s">
@@ -4609,9 +4609,9 @@
       <c r="C201" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
     </row>
     <row r="202" spans="1:6" ht="21">
       <c r="A202" s="5" t="s">
@@ -4623,9 +4623,9 @@
       <c r="C202" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="13"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
     </row>
     <row r="203" spans="1:6" ht="21">
       <c r="A203" s="5" t="s">
@@ -4637,9 +4637,9 @@
       <c r="C203" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
     </row>
     <row r="204" spans="1:6" ht="21">
       <c r="A204" s="5" t="s">
@@ -4651,9 +4651,9 @@
       <c r="C204" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
     </row>
     <row r="205" spans="1:6" ht="21">
       <c r="A205" s="5" t="s">
@@ -4665,9 +4665,9 @@
       <c r="C205" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
     </row>
     <row r="206" spans="1:6" ht="21">
       <c r="A206" s="5" t="s">
@@ -4679,9 +4679,9 @@
       <c r="C206" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
     </row>
     <row r="207" spans="1:6" ht="21">
       <c r="A207" s="5" t="s">
@@ -4693,9 +4693,9 @@
       <c r="C207" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
     </row>
     <row r="208" spans="1:6" ht="21">
       <c r="A208" s="5" t="s">
@@ -4707,9 +4707,9 @@
       <c r="C208" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:6" ht="21">
       <c r="A209" s="5" t="s">
@@ -4721,9 +4721,9 @@
       <c r="C209" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
     </row>
     <row r="210" spans="1:6" ht="21">
       <c r="A210" s="5" t="s">
@@ -4735,9 +4735,9 @@
       <c r="C210" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
     </row>
     <row r="211" spans="1:6" ht="21">
       <c r="A211" s="5" t="s">
@@ -4749,25 +4749,25 @@
       <c r="C211" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
     </row>
     <row r="212" spans="1:6" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:6" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6" ht="21">
       <c r="A214" s="5" t="s">
@@ -4779,9 +4779,9 @@
       <c r="C214" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
     </row>
     <row r="215" spans="1:6" ht="21">
       <c r="A215" s="5" t="s">
@@ -4793,9 +4793,9 @@
       <c r="C215" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:6" ht="21">
       <c r="A216" s="5" t="s">
@@ -4807,9 +4807,9 @@
       <c r="C216" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:6" ht="21">
       <c r="A217" s="5" t="s">
@@ -4821,9 +4821,9 @@
       <c r="C217" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="13"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:6" ht="21">
       <c r="A218" s="5" t="s">
@@ -4835,9 +4835,9 @@
       <c r="C218" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:6" ht="21">
       <c r="A219" s="5" t="s">
@@ -4849,9 +4849,9 @@
       <c r="C219" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
     </row>
     <row r="220" spans="1:6" ht="21">
       <c r="A220" s="5" t="s">
@@ -4863,9 +4863,9 @@
       <c r="C220" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
     </row>
     <row r="221" spans="1:6" ht="21">
       <c r="A221" s="5" t="s">
@@ -4877,9 +4877,9 @@
       <c r="C221" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="13"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:6" ht="21">
       <c r="A222" s="5" t="s">
@@ -4891,9 +4891,9 @@
       <c r="C222" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
-      <c r="F222" s="13"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:6" ht="21">
       <c r="A223" s="5" t="s">
@@ -4905,9 +4905,9 @@
       <c r="C223" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="13"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
     </row>
     <row r="224" spans="1:6" ht="21">
       <c r="A224" s="5" t="s">
@@ -4919,9 +4919,9 @@
       <c r="C224" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
-      <c r="F224" s="13"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
     </row>
     <row r="225" spans="1:6" ht="21">
       <c r="A225" s="5" t="s">
@@ -4933,9 +4933,9 @@
       <c r="C225" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
     </row>
     <row r="226" spans="1:6" ht="21">
       <c r="A226" s="5" t="s">
@@ -4947,9 +4947,9 @@
       <c r="C226" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
-      <c r="F226" s="13"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
     </row>
     <row r="227" spans="1:6" ht="21">
       <c r="A227" s="5" t="s">
@@ -4961,9 +4961,9 @@
       <c r="C227" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="13"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
     </row>
     <row r="228" spans="1:6" ht="21">
       <c r="A228" s="5" t="s">
@@ -4975,9 +4975,9 @@
       <c r="C228" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
-      <c r="F228" s="13"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
     </row>
     <row r="229" spans="1:6" ht="21">
       <c r="A229" s="5" t="s">
@@ -4989,9 +4989,9 @@
       <c r="C229" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:6" ht="21">
       <c r="A230" s="5" t="s">
@@ -5003,9 +5003,9 @@
       <c r="C230" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
     </row>
     <row r="231" spans="1:6" ht="21">
       <c r="A231" s="5" t="s">
@@ -5017,9 +5017,9 @@
       <c r="C231" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
     </row>
     <row r="232" spans="1:6" ht="21">
       <c r="A232" s="5" t="s">
@@ -5031,9 +5031,9 @@
       <c r="C232" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="13"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
     </row>
     <row r="233" spans="1:6" ht="21">
       <c r="A233" s="5" t="s">
@@ -5045,9 +5045,9 @@
       <c r="C233" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="13"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:6" ht="21">
       <c r="A234" s="5" t="s">
@@ -5059,9 +5059,9 @@
       <c r="C234" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="13"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
     </row>
     <row r="235" spans="1:6" ht="21">
       <c r="A235" s="5" t="s">
@@ -5073,23 +5073,23 @@
       <c r="C235" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="13"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
     </row>
     <row r="236" spans="1:6" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
     </row>
     <row r="237" spans="1:6" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
-      <c r="F237" s="13"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
     </row>
     <row r="238" spans="1:6" ht="21">
       <c r="A238" s="5" t="s">
@@ -5101,9 +5101,9 @@
       <c r="C238" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D238" s="13"/>
-      <c r="E238" s="13"/>
-      <c r="F238" s="13"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
     </row>
     <row r="239" spans="1:6" ht="21">
       <c r="A239" s="5" t="s">
@@ -5115,9 +5115,9 @@
       <c r="C239" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:6" ht="21">
       <c r="A240" s="5" t="s">
@@ -5129,9 +5129,9 @@
       <c r="C240" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:6" ht="21">
       <c r="A241" s="5" t="s">
@@ -5143,9 +5143,9 @@
       <c r="C241" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:6" ht="21">
       <c r="A242" s="5" t="s">
@@ -5157,9 +5157,9 @@
       <c r="C242" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
-      <c r="F242" s="13"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:6" ht="21">
       <c r="A243" s="5" t="s">
@@ -5171,9 +5171,9 @@
       <c r="C243" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
-      <c r="F243" s="13"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
     </row>
     <row r="244" spans="1:6" ht="21">
       <c r="A244" s="5" t="s">
@@ -5185,9 +5185,9 @@
       <c r="C244" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D244" s="13"/>
-      <c r="E244" s="13"/>
-      <c r="F244" s="13"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
     </row>
     <row r="245" spans="1:6" ht="21">
       <c r="A245" s="5" t="s">
@@ -5199,9 +5199,9 @@
       <c r="C245" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
-      <c r="F245" s="13"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:6" ht="21">
       <c r="A246" s="5" t="s">
@@ -5213,9 +5213,9 @@
       <c r="C246" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13"/>
-      <c r="F246" s="13"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:6" ht="21">
       <c r="A247" s="5" t="s">
@@ -5227,9 +5227,9 @@
       <c r="C247" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="13"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:6" ht="21">
       <c r="A248" s="5" t="s">
@@ -5241,9 +5241,9 @@
       <c r="C248" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D248" s="13"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="13"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
     </row>
     <row r="249" spans="1:6" ht="21">
       <c r="A249" s="5" t="s">
@@ -5255,9 +5255,9 @@
       <c r="C249" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="13"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
     </row>
     <row r="250" spans="1:6" ht="21">
       <c r="A250" s="5" t="s">
@@ -5269,9 +5269,9 @@
       <c r="C250" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="13"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
     </row>
     <row r="251" spans="1:6" ht="21">
       <c r="A251" s="5" t="s">
@@ -5283,9 +5283,9 @@
       <c r="C251" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="13"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
     </row>
     <row r="252" spans="1:6" ht="21">
       <c r="A252" s="5" t="s">
@@ -5297,9 +5297,9 @@
       <c r="C252" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="13"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
     </row>
     <row r="253" spans="1:6" ht="21">
       <c r="A253" s="5" t="s">
@@ -5311,9 +5311,9 @@
       <c r="C253" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="13"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
     </row>
     <row r="254" spans="1:6" ht="21">
       <c r="A254" s="5" t="s">
@@ -5325,9 +5325,9 @@
       <c r="C254" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="13"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
     </row>
     <row r="255" spans="1:6" ht="21">
       <c r="A255" s="5" t="s">
@@ -5339,9 +5339,9 @@
       <c r="C255" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
     </row>
     <row r="256" spans="1:6" ht="21">
       <c r="A256" s="5" t="s">
@@ -5353,9 +5353,9 @@
       <c r="C256" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
-      <c r="F256" s="13"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
     </row>
     <row r="257" spans="1:6" ht="21">
       <c r="A257" s="5" t="s">
@@ -5367,9 +5367,9 @@
       <c r="C257" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
-      <c r="F257" s="13"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:6" ht="21">
       <c r="A258" s="5" t="s">
@@ -5381,9 +5381,9 @@
       <c r="C258" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D258" s="13"/>
-      <c r="E258" s="13"/>
-      <c r="F258" s="13"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:6" ht="21">
       <c r="A259" s="5" t="s">
@@ -5395,9 +5395,9 @@
       <c r="C259" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D259" s="13"/>
-      <c r="E259" s="13"/>
-      <c r="F259" s="13"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
     </row>
     <row r="260" spans="1:6" ht="21">
       <c r="A260" s="5" t="s">
@@ -5409,9 +5409,9 @@
       <c r="C260" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D260" s="13"/>
-      <c r="E260" s="13"/>
-      <c r="F260" s="13"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
     </row>
     <row r="261" spans="1:6" ht="21">
       <c r="A261" s="5" t="s">
@@ -5423,9 +5423,9 @@
       <c r="C261" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
-      <c r="F261" s="13"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:6" ht="21">
       <c r="A262" s="5" t="s">
@@ -5437,9 +5437,9 @@
       <c r="C262" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
-      <c r="F262" s="13"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:6" ht="21">
       <c r="A263" s="5" t="s">
@@ -5451,9 +5451,9 @@
       <c r="C263" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D263" s="13"/>
-      <c r="E263" s="13"/>
-      <c r="F263" s="13"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:6" ht="21">
       <c r="A264" s="5" t="s">
@@ -5465,9 +5465,9 @@
       <c r="C264" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D264" s="13"/>
-      <c r="E264" s="13"/>
-      <c r="F264" s="13"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
     </row>
     <row r="265" spans="1:6" ht="21">
       <c r="A265" s="5" t="s">
@@ -5479,9 +5479,9 @@
       <c r="C265" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D265" s="13"/>
-      <c r="E265" s="13"/>
-      <c r="F265" s="13"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
     </row>
     <row r="266" spans="1:6" ht="21">
       <c r="A266" s="5" t="s">
@@ -5493,9 +5493,9 @@
       <c r="C266" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
-      <c r="F266" s="13"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:6" ht="21">
       <c r="A267" s="5" t="s">
@@ -5507,9 +5507,9 @@
       <c r="C267" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
-      <c r="F267" s="13"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
     </row>
     <row r="268" spans="1:6" ht="21">
       <c r="A268" s="5" t="s">
@@ -5521,9 +5521,9 @@
       <c r="C268" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D268" s="13"/>
-      <c r="E268" s="13"/>
-      <c r="F268" s="13"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
     </row>
     <row r="269" spans="1:6" ht="21">
       <c r="A269" s="5" t="s">
@@ -5535,9 +5535,9 @@
       <c r="C269" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
-      <c r="F269" s="13"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
     </row>
     <row r="270" spans="1:6" ht="21">
       <c r="A270" s="5" t="s">
@@ -5549,9 +5549,9 @@
       <c r="C270" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D270" s="13"/>
-      <c r="E270" s="13"/>
-      <c r="F270" s="13"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:6" ht="21">
       <c r="A271" s="5" t="s">
@@ -5563,9 +5563,9 @@
       <c r="C271" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
-      <c r="F271" s="13"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
     </row>
     <row r="272" spans="1:6" ht="21">
       <c r="A272" s="5" t="s">
@@ -5577,23 +5577,23 @@
       <c r="C272" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D272" s="13"/>
-      <c r="E272" s="13"/>
-      <c r="F272" s="13"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
     </row>
     <row r="273" spans="1:6" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="13"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
     </row>
     <row r="274" spans="1:6" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="13"/>
-      <c r="E274" s="13"/>
-      <c r="F274" s="13"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
     </row>
     <row r="275" spans="1:6" ht="21">
       <c r="A275" s="5" t="s">
@@ -5605,9 +5605,9 @@
       <c r="C275" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="13"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
     </row>
     <row r="276" spans="1:6" ht="21">
       <c r="A276" s="5" t="s">
@@ -5619,9 +5619,9 @@
       <c r="C276" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D276" s="13"/>
-      <c r="E276" s="13"/>
-      <c r="F276" s="13"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:6" ht="21">
       <c r="A277" s="5" t="s">
@@ -5633,9 +5633,9 @@
       <c r="C277" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D277" s="13"/>
-      <c r="E277" s="13"/>
-      <c r="F277" s="13"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:6" ht="21">
       <c r="A278" s="5" t="s">
@@ -5647,9 +5647,9 @@
       <c r="C278" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D278" s="13"/>
-      <c r="E278" s="13"/>
-      <c r="F278" s="13"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:6" ht="21">
       <c r="A279" s="5" t="s">
@@ -5661,9 +5661,9 @@
       <c r="C279" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D279" s="13"/>
-      <c r="E279" s="13"/>
-      <c r="F279" s="13"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:6" ht="21">
       <c r="A280" s="5" t="s">
@@ -5675,9 +5675,9 @@
       <c r="C280" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D280" s="13"/>
-      <c r="E280" s="13"/>
-      <c r="F280" s="13"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:6" ht="21">
       <c r="A281" s="5" t="s">
@@ -5689,9 +5689,9 @@
       <c r="C281" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13"/>
-      <c r="F281" s="13"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:6" ht="21">
       <c r="A282" s="5" t="s">
@@ -5703,9 +5703,9 @@
       <c r="C282" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D282" s="13"/>
-      <c r="E282" s="13"/>
-      <c r="F282" s="13"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
     </row>
     <row r="283" spans="1:6" ht="21">
       <c r="A283" s="5" t="s">
@@ -5717,9 +5717,9 @@
       <c r="C283" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D283" s="13"/>
-      <c r="E283" s="13"/>
-      <c r="F283" s="13"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
     </row>
     <row r="284" spans="1:6" ht="21">
       <c r="A284" s="5" t="s">
@@ -5731,9 +5731,9 @@
       <c r="C284" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D284" s="13"/>
-      <c r="E284" s="13"/>
-      <c r="F284" s="13"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:6" ht="21">
       <c r="A285" s="5" t="s">
@@ -5745,9 +5745,9 @@
       <c r="C285" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D285" s="13"/>
-      <c r="E285" s="13"/>
-      <c r="F285" s="13"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:6" ht="21">
       <c r="A286" s="5" t="s">
@@ -5759,9 +5759,9 @@
       <c r="C286" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D286" s="13"/>
-      <c r="E286" s="13"/>
-      <c r="F286" s="13"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
     </row>
     <row r="287" spans="1:6" ht="21">
       <c r="A287" s="5" t="s">
@@ -5773,9 +5773,9 @@
       <c r="C287" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="13"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:6" ht="21">
       <c r="A288" s="5" t="s">
@@ -5787,9 +5787,9 @@
       <c r="C288" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
-      <c r="F288" s="13"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
     </row>
     <row r="289" spans="1:6" ht="21">
       <c r="A289" s="5" t="s">
@@ -5801,9 +5801,9 @@
       <c r="C289" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D289" s="13"/>
-      <c r="E289" s="13"/>
-      <c r="F289" s="13"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:6" ht="21">
       <c r="A290" s="5" t="s">
@@ -5815,9 +5815,9 @@
       <c r="C290" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D290" s="13"/>
-      <c r="E290" s="13"/>
-      <c r="F290" s="13"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
     </row>
     <row r="291" spans="1:6" ht="21">
       <c r="A291" s="5" t="s">
@@ -5829,9 +5829,9 @@
       <c r="C291" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D291" s="13"/>
-      <c r="E291" s="13"/>
-      <c r="F291" s="13"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
     </row>
     <row r="292" spans="1:6" ht="21">
       <c r="A292" s="5" t="s">
@@ -5843,9 +5843,9 @@
       <c r="C292" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D292" s="13"/>
-      <c r="E292" s="13"/>
-      <c r="F292" s="13"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
     </row>
     <row r="293" spans="1:6" ht="21">
       <c r="A293" s="5" t="s">
@@ -5857,23 +5857,23 @@
       <c r="C293" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D293" s="13"/>
-      <c r="E293" s="13"/>
-      <c r="F293" s="13"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
     </row>
     <row r="294" spans="1:6" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="13"/>
-      <c r="E294" s="13"/>
-      <c r="F294" s="13"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
     </row>
     <row r="295" spans="1:6" ht="21">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
-      <c r="F295" s="13"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
     </row>
     <row r="296" spans="1:6" ht="21">
       <c r="A296" s="5" t="s">
@@ -5885,9 +5885,9 @@
       <c r="C296" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13"/>
-      <c r="F296" s="13"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
     </row>
     <row r="297" spans="1:6" ht="21">
       <c r="A297" s="5" t="s">
@@ -5899,9 +5899,9 @@
       <c r="C297" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
-      <c r="F297" s="13"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
     </row>
     <row r="298" spans="1:6" ht="21">
       <c r="A298" s="5" t="s">
@@ -5913,9 +5913,9 @@
       <c r="C298" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
-      <c r="F298" s="13"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
     </row>
     <row r="299" spans="1:6" ht="21">
       <c r="A299" s="5" t="s">
@@ -5927,9 +5927,9 @@
       <c r="C299" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
-      <c r="F299" s="13"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
     </row>
     <row r="300" spans="1:6" ht="21">
       <c r="A300" s="5" t="s">
@@ -5941,9 +5941,9 @@
       <c r="C300" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D300" s="13"/>
-      <c r="E300" s="13"/>
-      <c r="F300" s="13"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:6" ht="21">
       <c r="A301" s="5" t="s">
@@ -5955,9 +5955,9 @@
       <c r="C301" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D301" s="13"/>
-      <c r="E301" s="13"/>
-      <c r="F301" s="13"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
     </row>
     <row r="302" spans="1:6" ht="21">
       <c r="A302" s="5" t="s">
@@ -5969,9 +5969,9 @@
       <c r="C302" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D302" s="13"/>
-      <c r="E302" s="13"/>
-      <c r="F302" s="13"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
     </row>
     <row r="303" spans="1:6" ht="21">
       <c r="A303" s="5" t="s">
@@ -5983,9 +5983,9 @@
       <c r="C303" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D303" s="13"/>
-      <c r="E303" s="13"/>
-      <c r="F303" s="13"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
     </row>
     <row r="304" spans="1:6" ht="21">
       <c r="A304" s="5" t="s">
@@ -5997,9 +5997,9 @@
       <c r="C304" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D304" s="13"/>
-      <c r="E304" s="13"/>
-      <c r="F304" s="13"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
     </row>
     <row r="305" spans="1:6" ht="21">
       <c r="A305" s="5" t="s">
@@ -6011,9 +6011,9 @@
       <c r="C305" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D305" s="13"/>
-      <c r="E305" s="13"/>
-      <c r="F305" s="13"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
     </row>
     <row r="306" spans="1:6" ht="21">
       <c r="A306" s="5" t="s">
@@ -6025,9 +6025,9 @@
       <c r="C306" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D306" s="13"/>
-      <c r="E306" s="13"/>
-      <c r="F306" s="13"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
     </row>
     <row r="307" spans="1:6" ht="21">
       <c r="A307" s="5" t="s">
@@ -6039,9 +6039,9 @@
       <c r="C307" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D307" s="13"/>
-      <c r="E307" s="13"/>
-      <c r="F307" s="13"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
     </row>
     <row r="308" spans="1:6" ht="21">
       <c r="A308" s="5" t="s">
@@ -6053,9 +6053,9 @@
       <c r="C308" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D308" s="13"/>
-      <c r="E308" s="13"/>
-      <c r="F308" s="13"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
     </row>
     <row r="309" spans="1:6" ht="21">
       <c r="A309" s="5" t="s">
@@ -6067,9 +6067,9 @@
       <c r="C309" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13"/>
-      <c r="F309" s="13"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
     </row>
     <row r="310" spans="1:6" ht="21">
       <c r="A310" s="5" t="s">
@@ -6081,9 +6081,9 @@
       <c r="C310" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D310" s="13"/>
-      <c r="E310" s="13"/>
-      <c r="F310" s="13"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
+      <c r="F310" s="11"/>
     </row>
     <row r="311" spans="1:6" ht="21">
       <c r="A311" s="5" t="s">
@@ -6095,9 +6095,9 @@
       <c r="C311" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D311" s="13"/>
-      <c r="E311" s="13"/>
-      <c r="F311" s="13"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:6" ht="21">
       <c r="A312" s="5" t="s">
@@ -6109,9 +6109,9 @@
       <c r="C312" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D312" s="13"/>
-      <c r="E312" s="13"/>
-      <c r="F312" s="13"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
+      <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:6" ht="21">
       <c r="A313" s="5" t="s">
@@ -6123,9 +6123,9 @@
       <c r="C313" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D313" s="13"/>
-      <c r="E313" s="13"/>
-      <c r="F313" s="13"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
     </row>
     <row r="314" spans="1:6" ht="21">
       <c r="A314" s="5" t="s">
@@ -6137,9 +6137,9 @@
       <c r="C314" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D314" s="13"/>
-      <c r="E314" s="13"/>
-      <c r="F314" s="13"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
+      <c r="F314" s="11"/>
     </row>
     <row r="315" spans="1:6" ht="21">
       <c r="A315" s="5" t="s">
@@ -6151,9 +6151,9 @@
       <c r="C315" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D315" s="13"/>
-      <c r="E315" s="13"/>
-      <c r="F315" s="13"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
+      <c r="F315" s="11"/>
     </row>
     <row r="316" spans="1:6" ht="21">
       <c r="A316" s="5" t="s">
@@ -6165,9 +6165,9 @@
       <c r="C316" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D316" s="13"/>
-      <c r="E316" s="13"/>
-      <c r="F316" s="13"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
     </row>
     <row r="317" spans="1:6" ht="21">
       <c r="A317" s="5" t="s">
@@ -6179,9 +6179,9 @@
       <c r="C317" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D317" s="13"/>
-      <c r="E317" s="13"/>
-      <c r="F317" s="13"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:6" ht="21">
       <c r="A318" s="5" t="s">
@@ -6193,9 +6193,9 @@
       <c r="C318" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D318" s="13"/>
-      <c r="E318" s="13"/>
-      <c r="F318" s="13"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
+      <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:6" ht="21">
       <c r="A319" s="5" t="s">
@@ -6207,9 +6207,9 @@
       <c r="C319" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D319" s="13"/>
-      <c r="E319" s="13"/>
-      <c r="F319" s="13"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
+      <c r="F319" s="11"/>
     </row>
     <row r="320" spans="1:6" ht="21">
       <c r="A320" s="5" t="s">
@@ -6221,9 +6221,9 @@
       <c r="C320" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D320" s="13"/>
-      <c r="E320" s="13"/>
-      <c r="F320" s="13"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
+      <c r="F320" s="11"/>
     </row>
     <row r="321" spans="1:6" ht="21">
       <c r="A321" s="5" t="s">
@@ -6235,9 +6235,9 @@
       <c r="C321" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D321" s="13"/>
-      <c r="E321" s="13"/>
-      <c r="F321" s="13"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
     </row>
     <row r="322" spans="1:6" ht="21">
       <c r="A322" s="5" t="s">
@@ -6249,9 +6249,9 @@
       <c r="C322" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D322" s="13"/>
-      <c r="E322" s="13"/>
-      <c r="F322" s="13"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
     </row>
     <row r="323" spans="1:6" ht="21">
       <c r="A323" s="5" t="s">
@@ -6263,9 +6263,9 @@
       <c r="C323" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D323" s="13"/>
-      <c r="E323" s="13"/>
-      <c r="F323" s="13"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
     </row>
     <row r="324" spans="1:6" ht="21">
       <c r="A324" s="5" t="s">
@@ -6277,9 +6277,9 @@
       <c r="C324" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D324" s="13"/>
-      <c r="E324" s="13"/>
-      <c r="F324" s="13"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
     </row>
     <row r="325" spans="1:6" ht="21">
       <c r="A325" s="5" t="s">
@@ -6291,9 +6291,9 @@
       <c r="C325" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D325" s="13"/>
-      <c r="E325" s="13"/>
-      <c r="F325" s="13"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
     </row>
     <row r="326" spans="1:6" ht="21">
       <c r="A326" s="5" t="s">
@@ -6305,9 +6305,9 @@
       <c r="C326" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D326" s="13"/>
-      <c r="E326" s="13"/>
-      <c r="F326" s="13"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
     </row>
     <row r="327" spans="1:6" ht="21">
       <c r="A327" s="5" t="s">
@@ -6319,9 +6319,9 @@
       <c r="C327" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D327" s="13"/>
-      <c r="E327" s="13"/>
-      <c r="F327" s="13"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:6" ht="21">
       <c r="A328" s="5" t="s">
@@ -6333,9 +6333,9 @@
       <c r="C328" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D328" s="13"/>
-      <c r="E328" s="13"/>
-      <c r="F328" s="13"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
+      <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:6" ht="21">
       <c r="A329" s="5" t="s">
@@ -6347,9 +6347,9 @@
       <c r="C329" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D329" s="13"/>
-      <c r="E329" s="13"/>
-      <c r="F329" s="13"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:6" ht="21">
       <c r="A330" s="5" t="s">
@@ -6361,9 +6361,9 @@
       <c r="C330" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D330" s="13"/>
-      <c r="E330" s="13"/>
-      <c r="F330" s="13"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
+      <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:6" ht="21">
       <c r="A331" s="5" t="s">
@@ -6375,9 +6375,9 @@
       <c r="C331" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D331" s="13"/>
-      <c r="E331" s="13"/>
-      <c r="F331" s="13"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:6" ht="21">
       <c r="A332" s="5" t="s">
@@ -6389,9 +6389,9 @@
       <c r="C332" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D332" s="13"/>
-      <c r="E332" s="13"/>
-      <c r="F332" s="13"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:6" ht="21">
       <c r="A333" s="5" t="s">
@@ -6403,23 +6403,23 @@
       <c r="C333" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D333" s="13"/>
-      <c r="E333" s="13"/>
-      <c r="F333" s="13"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
+      <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:6" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="13"/>
-      <c r="E334" s="13"/>
-      <c r="F334" s="13"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
     </row>
     <row r="335" spans="1:6" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
-      <c r="D335" s="13"/>
-      <c r="E335" s="13"/>
-      <c r="F335" s="13"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
     </row>
     <row r="336" spans="1:6" ht="21">
       <c r="A336" s="8" t="s">
@@ -6431,9 +6431,9 @@
       <c r="C336" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D336" s="13"/>
-      <c r="E336" s="13"/>
-      <c r="F336" s="13"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
+      <c r="F336" s="11"/>
     </row>
     <row r="337" spans="1:6" ht="21">
       <c r="A337" s="8" t="s">
@@ -6445,9 +6445,9 @@
       <c r="C337" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D337" s="13"/>
-      <c r="E337" s="13"/>
-      <c r="F337" s="13"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
+      <c r="F337" s="11"/>
     </row>
     <row r="338" spans="1:6" ht="21">
       <c r="A338" s="8" t="s">
@@ -6459,9 +6459,9 @@
       <c r="C338" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D338" s="13"/>
-      <c r="E338" s="13"/>
-      <c r="F338" s="13"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11"/>
     </row>
     <row r="339" spans="1:6" ht="21">
       <c r="A339" s="8" t="s">
@@ -6473,9 +6473,9 @@
       <c r="C339" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
-      <c r="F339" s="13"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
+      <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:6" ht="21">
       <c r="A340" s="8" t="s">
@@ -6487,9 +6487,9 @@
       <c r="C340" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D340" s="13"/>
-      <c r="E340" s="13"/>
-      <c r="F340" s="13"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
     </row>
     <row r="341" spans="1:6" ht="21">
       <c r="A341" s="8" t="s">
@@ -6501,9 +6501,9 @@
       <c r="C341" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D341" s="13"/>
-      <c r="E341" s="13"/>
-      <c r="F341" s="13"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
+      <c r="F341" s="11"/>
     </row>
     <row r="342" spans="1:6" ht="21">
       <c r="A342" s="8" t="s">
@@ -6515,9 +6515,9 @@
       <c r="C342" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D342" s="13"/>
-      <c r="E342" s="13"/>
-      <c r="F342" s="13"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11"/>
     </row>
     <row r="343" spans="1:6" ht="21">
       <c r="A343" s="8" t="s">
@@ -6529,9 +6529,9 @@
       <c r="C343" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D343" s="13"/>
-      <c r="E343" s="13"/>
-      <c r="F343" s="13"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
+      <c r="F343" s="11"/>
     </row>
     <row r="344" spans="1:6" ht="21">
       <c r="A344" s="8" t="s">
@@ -6543,9 +6543,9 @@
       <c r="C344" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D344" s="13"/>
-      <c r="E344" s="13"/>
-      <c r="F344" s="13"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
+      <c r="F344" s="11"/>
     </row>
     <row r="345" spans="1:6" ht="21">
       <c r="A345" s="8" t="s">
@@ -6557,9 +6557,9 @@
       <c r="C345" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D345" s="13"/>
-      <c r="E345" s="13"/>
-      <c r="F345" s="13"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
+      <c r="F345" s="11"/>
     </row>
     <row r="346" spans="1:6" ht="21">
       <c r="A346" s="8" t="s">
@@ -6571,9 +6571,9 @@
       <c r="C346" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D346" s="13"/>
-      <c r="E346" s="13"/>
-      <c r="F346" s="13"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
+      <c r="F346" s="11"/>
     </row>
     <row r="347" spans="1:6" ht="21">
       <c r="A347" s="8" t="s">
@@ -6585,9 +6585,9 @@
       <c r="C347" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D347" s="13"/>
-      <c r="E347" s="13"/>
-      <c r="F347" s="13"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
+      <c r="F347" s="11"/>
     </row>
     <row r="348" spans="1:6" ht="21">
       <c r="A348" s="8" t="s">
@@ -6599,9 +6599,9 @@
       <c r="C348" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D348" s="13"/>
-      <c r="E348" s="13"/>
-      <c r="F348" s="13"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11"/>
     </row>
     <row r="349" spans="1:6" ht="21">
       <c r="A349" s="8" t="s">
@@ -6613,9 +6613,9 @@
       <c r="C349" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D349" s="13"/>
-      <c r="E349" s="13"/>
-      <c r="F349" s="13"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="11"/>
+      <c r="F349" s="11"/>
     </row>
     <row r="350" spans="1:6" ht="21">
       <c r="A350" s="8" t="s">
@@ -6627,9 +6627,9 @@
       <c r="C350" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D350" s="13"/>
-      <c r="E350" s="13"/>
-      <c r="F350" s="13"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
+      <c r="F350" s="11"/>
     </row>
     <row r="351" spans="1:6" ht="21">
       <c r="A351" s="8" t="s">
@@ -6641,9 +6641,9 @@
       <c r="C351" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D351" s="13"/>
-      <c r="E351" s="13"/>
-      <c r="F351" s="13"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="11"/>
+      <c r="F351" s="11"/>
     </row>
     <row r="352" spans="1:6" ht="21">
       <c r="A352" s="8" t="s">
@@ -6655,9 +6655,9 @@
       <c r="C352" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D352" s="13"/>
-      <c r="E352" s="13"/>
-      <c r="F352" s="13"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="11"/>
+      <c r="F352" s="11"/>
     </row>
     <row r="353" spans="1:6" ht="21">
       <c r="A353" s="8" t="s">
@@ -6669,23 +6669,23 @@
       <c r="C353" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D353" s="13"/>
-      <c r="E353" s="13"/>
-      <c r="F353" s="13"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
     </row>
     <row r="354" spans="1:6" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="13"/>
-      <c r="F354" s="13"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
+      <c r="F354" s="11"/>
     </row>
     <row r="355" spans="1:6" ht="21">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
-      <c r="D355" s="13"/>
-      <c r="E355" s="13"/>
-      <c r="F355" s="13"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
+      <c r="F355" s="11"/>
     </row>
     <row r="356" spans="1:6" ht="21">
       <c r="A356" s="8" t="s">
@@ -6697,9 +6697,9 @@
       <c r="C356" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D356" s="13"/>
-      <c r="E356" s="13"/>
-      <c r="F356" s="13"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
+      <c r="F356" s="11"/>
     </row>
     <row r="357" spans="1:6" ht="21">
       <c r="A357" s="8" t="s">
@@ -6711,9 +6711,9 @@
       <c r="C357" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D357" s="13"/>
-      <c r="E357" s="13"/>
-      <c r="F357" s="13"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="11"/>
+      <c r="F357" s="11"/>
     </row>
     <row r="358" spans="1:6" ht="21">
       <c r="A358" s="8" t="s">
@@ -6725,9 +6725,9 @@
       <c r="C358" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D358" s="13"/>
-      <c r="E358" s="13"/>
-      <c r="F358" s="13"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="11"/>
+      <c r="F358" s="11"/>
     </row>
     <row r="359" spans="1:6" ht="21">
       <c r="A359" s="8" t="s">
@@ -6739,9 +6739,9 @@
       <c r="C359" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D359" s="13"/>
-      <c r="E359" s="13"/>
-      <c r="F359" s="13"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="11"/>
+      <c r="F359" s="11"/>
     </row>
     <row r="360" spans="1:6" ht="21">
       <c r="A360" s="8" t="s">
@@ -6753,9 +6753,9 @@
       <c r="C360" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D360" s="13"/>
-      <c r="E360" s="13"/>
-      <c r="F360" s="13"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
+      <c r="F360" s="11"/>
     </row>
     <row r="361" spans="1:6" ht="21">
       <c r="A361" s="8" t="s">
@@ -6767,9 +6767,9 @@
       <c r="C361" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D361" s="13"/>
-      <c r="E361" s="13"/>
-      <c r="F361" s="13"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="11"/>
+      <c r="F361" s="11"/>
     </row>
     <row r="362" spans="1:6" ht="21">
       <c r="A362" s="8" t="s">
@@ -6781,9 +6781,9 @@
       <c r="C362" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D362" s="13"/>
-      <c r="E362" s="13"/>
-      <c r="F362" s="13"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="11"/>
+      <c r="F362" s="11"/>
     </row>
     <row r="363" spans="1:6" ht="21">
       <c r="A363" s="8" t="s">
@@ -6795,9 +6795,9 @@
       <c r="C363" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D363" s="13"/>
-      <c r="E363" s="13"/>
-      <c r="F363" s="13"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="11"/>
+      <c r="F363" s="11"/>
     </row>
     <row r="364" spans="1:6" ht="21">
       <c r="A364" s="8" t="s">
@@ -6809,9 +6809,9 @@
       <c r="C364" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D364" s="13"/>
-      <c r="E364" s="13"/>
-      <c r="F364" s="13"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="11"/>
+      <c r="F364" s="11"/>
     </row>
     <row r="365" spans="1:6" ht="21">
       <c r="A365" s="8" t="s">
@@ -6823,9 +6823,9 @@
       <c r="C365" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D365" s="13"/>
-      <c r="E365" s="13"/>
-      <c r="F365" s="13"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="11"/>
+      <c r="F365" s="11"/>
     </row>
     <row r="366" spans="1:6" ht="21">
       <c r="A366" s="8" t="s">
@@ -6837,9 +6837,9 @@
       <c r="C366" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D366" s="13"/>
-      <c r="E366" s="13"/>
-      <c r="F366" s="13"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="11"/>
+      <c r="F366" s="11"/>
     </row>
     <row r="367" spans="1:6" ht="21">
       <c r="A367" s="8" t="s">
@@ -6851,9 +6851,9 @@
       <c r="C367" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D367" s="13"/>
-      <c r="E367" s="13"/>
-      <c r="F367" s="13"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11"/>
+      <c r="F367" s="11"/>
     </row>
     <row r="368" spans="1:6" ht="21">
       <c r="A368" s="8" t="s">
@@ -6865,9 +6865,9 @@
       <c r="C368" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D368" s="13"/>
-      <c r="E368" s="13"/>
-      <c r="F368" s="13"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11"/>
+      <c r="F368" s="11"/>
     </row>
     <row r="369" spans="1:6" ht="21">
       <c r="A369" s="8" t="s">
@@ -6879,9 +6879,9 @@
       <c r="C369" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D369" s="13"/>
-      <c r="E369" s="13"/>
-      <c r="F369" s="13"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="11"/>
+      <c r="F369" s="11"/>
     </row>
     <row r="370" spans="1:6" ht="21">
       <c r="A370" s="8" t="s">
@@ -6893,9 +6893,9 @@
       <c r="C370" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D370" s="13"/>
-      <c r="E370" s="13"/>
-      <c r="F370" s="13"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="11"/>
+      <c r="F370" s="11"/>
     </row>
     <row r="371" spans="1:6" ht="21">
       <c r="A371" s="8" t="s">
@@ -6907,9 +6907,9 @@
       <c r="C371" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D371" s="13"/>
-      <c r="E371" s="13"/>
-      <c r="F371" s="13"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11"/>
+      <c r="F371" s="11"/>
     </row>
     <row r="372" spans="1:6" ht="21">
       <c r="A372" s="8" t="s">
@@ -6921,9 +6921,9 @@
       <c r="C372" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D372" s="13"/>
-      <c r="E372" s="13"/>
-      <c r="F372" s="13"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="11"/>
+      <c r="F372" s="11"/>
     </row>
     <row r="373" spans="1:6" ht="21">
       <c r="A373" s="8" t="s">
@@ -6935,9 +6935,9 @@
       <c r="C373" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D373" s="13"/>
-      <c r="E373" s="13"/>
-      <c r="F373" s="13"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
+      <c r="F373" s="11"/>
     </row>
     <row r="374" spans="1:6" ht="21">
       <c r="A374" s="8" t="s">
@@ -6949,9 +6949,9 @@
       <c r="C374" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D374" s="13"/>
-      <c r="E374" s="13"/>
-      <c r="F374" s="13"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="11"/>
+      <c r="F374" s="11"/>
     </row>
     <row r="375" spans="1:6" ht="21">
       <c r="A375" s="8" t="s">
@@ -6963,9 +6963,9 @@
       <c r="C375" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D375" s="13"/>
-      <c r="E375" s="13"/>
-      <c r="F375" s="13"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
+      <c r="F375" s="11"/>
     </row>
     <row r="376" spans="1:6" ht="21">
       <c r="A376" s="8" t="s">
@@ -6977,9 +6977,9 @@
       <c r="C376" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D376" s="13"/>
-      <c r="E376" s="13"/>
-      <c r="F376" s="13"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
+      <c r="F376" s="11"/>
     </row>
     <row r="377" spans="1:6" ht="21">
       <c r="A377" s="8" t="s">
@@ -6991,9 +6991,9 @@
       <c r="C377" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
-      <c r="F377" s="13"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="11"/>
+      <c r="F377" s="11"/>
     </row>
     <row r="378" spans="1:6" ht="21">
       <c r="A378" s="8" t="s">
@@ -7005,9 +7005,9 @@
       <c r="C378" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D378" s="13"/>
-      <c r="E378" s="13"/>
-      <c r="F378" s="13"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
     </row>
     <row r="379" spans="1:6" ht="21">
       <c r="A379" s="8" t="s">
@@ -7019,9 +7019,9 @@
       <c r="C379" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D379" s="13"/>
-      <c r="E379" s="13"/>
-      <c r="F379" s="13"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
+      <c r="F379" s="11"/>
     </row>
     <row r="380" spans="1:6" ht="21">
       <c r="A380" s="8" t="s">
@@ -7033,9 +7033,9 @@
       <c r="C380" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D380" s="13"/>
-      <c r="E380" s="13"/>
-      <c r="F380" s="13"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="11"/>
+      <c r="F380" s="11"/>
     </row>
     <row r="381" spans="1:6" ht="21">
       <c r="A381" s="8" t="s">
@@ -7047,9 +7047,9 @@
       <c r="C381" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D381" s="13"/>
-      <c r="E381" s="13"/>
-      <c r="F381" s="13"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="11"/>
+      <c r="F381" s="11"/>
     </row>
     <row r="382" spans="1:6" ht="21">
       <c r="A382" s="8" t="s">
@@ -7061,9 +7061,9 @@
       <c r="C382" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D382" s="13"/>
-      <c r="E382" s="13"/>
-      <c r="F382" s="13"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="11"/>
+      <c r="F382" s="11"/>
     </row>
     <row r="383" spans="1:6" ht="21">
       <c r="A383" s="8" t="s">
@@ -7075,9 +7075,9 @@
       <c r="C383" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D383" s="13"/>
-      <c r="E383" s="13"/>
-      <c r="F383" s="13"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="11"/>
+      <c r="F383" s="11"/>
     </row>
     <row r="384" spans="1:6" ht="21">
       <c r="A384" s="8" t="s">
@@ -7089,9 +7089,9 @@
       <c r="C384" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D384" s="13"/>
-      <c r="E384" s="13"/>
-      <c r="F384" s="13"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="11"/>
+      <c r="F384" s="11"/>
     </row>
     <row r="385" spans="1:6" ht="21">
       <c r="A385" s="8" t="s">
@@ -7103,9 +7103,9 @@
       <c r="C385" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D385" s="13"/>
-      <c r="E385" s="13"/>
-      <c r="F385" s="13"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
+      <c r="F385" s="11"/>
     </row>
     <row r="386" spans="1:6" ht="21">
       <c r="A386" s="8" t="s">
@@ -7117,9 +7117,9 @@
       <c r="C386" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D386" s="13"/>
-      <c r="E386" s="13"/>
-      <c r="F386" s="13"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="11"/>
+      <c r="F386" s="11"/>
     </row>
     <row r="387" spans="1:6" ht="21">
       <c r="A387" s="8" t="s">
@@ -7131,9 +7131,9 @@
       <c r="C387" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D387" s="13"/>
-      <c r="E387" s="13"/>
-      <c r="F387" s="13"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="11"/>
+      <c r="F387" s="11"/>
     </row>
     <row r="388" spans="1:6" ht="21">
       <c r="A388" s="8" t="s">
@@ -7145,9 +7145,9 @@
       <c r="C388" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D388" s="13"/>
-      <c r="E388" s="13"/>
-      <c r="F388" s="13"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
+      <c r="F388" s="11"/>
     </row>
     <row r="389" spans="1:6" ht="21">
       <c r="A389" s="8" t="s">
@@ -7159,9 +7159,9 @@
       <c r="C389" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D389" s="13"/>
-      <c r="E389" s="13"/>
-      <c r="F389" s="13"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
+      <c r="F389" s="11"/>
     </row>
     <row r="390" spans="1:6" ht="21">
       <c r="A390" s="8" t="s">
@@ -7173,9 +7173,9 @@
       <c r="C390" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D390" s="13"/>
-      <c r="E390" s="13"/>
-      <c r="F390" s="13"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
+      <c r="F390" s="11"/>
     </row>
     <row r="391" spans="1:6" ht="21">
       <c r="A391" s="8" t="s">
@@ -7187,9 +7187,9 @@
       <c r="C391" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D391" s="13"/>
-      <c r="E391" s="13"/>
-      <c r="F391" s="13"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="11"/>
+      <c r="F391" s="11"/>
     </row>
     <row r="392" spans="1:6" ht="21">
       <c r="A392" s="8" t="s">
@@ -7201,9 +7201,9 @@
       <c r="C392" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D392" s="13"/>
-      <c r="E392" s="13"/>
-      <c r="F392" s="13"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="11"/>
+      <c r="F392" s="11"/>
     </row>
     <row r="393" spans="1:6" ht="21">
       <c r="A393" s="8" t="s">
@@ -7215,9 +7215,9 @@
       <c r="C393" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D393" s="13"/>
-      <c r="E393" s="13"/>
-      <c r="F393" s="13"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
+      <c r="F393" s="11"/>
     </row>
     <row r="394" spans="1:6" ht="21">
       <c r="A394" s="8" t="s">
@@ -7229,9 +7229,9 @@
       <c r="C394" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D394" s="13"/>
-      <c r="E394" s="13"/>
-      <c r="F394" s="13"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11"/>
+      <c r="F394" s="11"/>
     </row>
     <row r="395" spans="1:6" ht="21">
       <c r="A395" s="8" t="s">
@@ -7243,9 +7243,9 @@
       <c r="C395" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D395" s="13"/>
-      <c r="E395" s="13"/>
-      <c r="F395" s="13"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="11"/>
+      <c r="F395" s="11"/>
     </row>
     <row r="396" spans="1:6" ht="21">
       <c r="A396" s="8" t="s">
@@ -7257,9 +7257,9 @@
       <c r="C396" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D396" s="13"/>
-      <c r="E396" s="13"/>
-      <c r="F396" s="13"/>
+      <c r="D396" s="11"/>
+      <c r="E396" s="11"/>
+      <c r="F396" s="11"/>
     </row>
     <row r="397" spans="1:6" ht="21">
       <c r="A397" s="8" t="s">
@@ -7271,9 +7271,9 @@
       <c r="C397" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D397" s="13"/>
-      <c r="E397" s="13"/>
-      <c r="F397" s="13"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="11"/>
+      <c r="F397" s="11"/>
     </row>
     <row r="398" spans="1:6" ht="21">
       <c r="A398" s="8" t="s">
@@ -7285,9 +7285,9 @@
       <c r="C398" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D398" s="13"/>
-      <c r="E398" s="13"/>
-      <c r="F398" s="13"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
+      <c r="F398" s="11"/>
     </row>
     <row r="399" spans="1:6" ht="21">
       <c r="A399" s="8" t="s">
@@ -7299,23 +7299,23 @@
       <c r="C399" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D399" s="13"/>
-      <c r="E399" s="13"/>
-      <c r="F399" s="13"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
     </row>
     <row r="400" spans="1:6" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
-      <c r="D400" s="13"/>
-      <c r="E400" s="13"/>
-      <c r="F400" s="13"/>
+      <c r="D400" s="11"/>
+      <c r="E400" s="11"/>
+      <c r="F400" s="11"/>
     </row>
     <row r="401" spans="1:6" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
-      <c r="D401" s="13"/>
-      <c r="E401" s="13"/>
-      <c r="F401" s="13"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="11"/>
+      <c r="F401" s="11"/>
     </row>
     <row r="402" spans="1:6" ht="21">
       <c r="A402" s="8" t="s">
@@ -7327,9 +7327,9 @@
       <c r="C402" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D402" s="13"/>
-      <c r="E402" s="13"/>
-      <c r="F402" s="13"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
+      <c r="F402" s="11"/>
     </row>
     <row r="403" spans="1:6" ht="21">
       <c r="A403" s="8" t="s">
@@ -7341,9 +7341,9 @@
       <c r="C403" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D403" s="13"/>
-      <c r="E403" s="13"/>
-      <c r="F403" s="13"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
     </row>
     <row r="404" spans="1:6" ht="21">
       <c r="A404" s="8" t="s">
@@ -7355,9 +7355,9 @@
       <c r="C404" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D404" s="13"/>
-      <c r="E404" s="13"/>
-      <c r="F404" s="13"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="11"/>
+      <c r="F404" s="11"/>
     </row>
     <row r="405" spans="1:6" ht="21">
       <c r="A405" s="8" t="s">
@@ -7369,9 +7369,9 @@
       <c r="C405" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D405" s="13"/>
-      <c r="E405" s="13"/>
-      <c r="F405" s="13"/>
+      <c r="D405" s="11"/>
+      <c r="E405" s="11"/>
+      <c r="F405" s="11"/>
     </row>
     <row r="406" spans="1:6" ht="21">
       <c r="A406" s="8" t="s">
@@ -7383,9 +7383,9 @@
       <c r="C406" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D406" s="13"/>
-      <c r="E406" s="13"/>
-      <c r="F406" s="13"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
+      <c r="F406" s="11"/>
     </row>
     <row r="407" spans="1:6" ht="21">
       <c r="A407" s="8" t="s">
@@ -7397,23 +7397,23 @@
       <c r="C407" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D407" s="13"/>
-      <c r="E407" s="13"/>
-      <c r="F407" s="13"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
     </row>
     <row r="408" spans="1:6" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
-      <c r="D408" s="13"/>
-      <c r="E408" s="13"/>
-      <c r="F408" s="13"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
     </row>
     <row r="409" spans="1:6" ht="21">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
-      <c r="D409" s="13"/>
-      <c r="E409" s="13"/>
-      <c r="F409" s="13"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
     </row>
     <row r="410" spans="1:6" ht="21">
       <c r="A410" s="5" t="s">
@@ -7425,9 +7425,9 @@
       <c r="C410" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D410" s="13"/>
-      <c r="E410" s="13"/>
-      <c r="F410" s="13"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
+      <c r="F410" s="11"/>
     </row>
     <row r="411" spans="1:6" ht="21">
       <c r="A411" s="5" t="s">
@@ -7439,9 +7439,9 @@
       <c r="C411" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D411" s="13"/>
-      <c r="E411" s="13"/>
-      <c r="F411" s="13"/>
+      <c r="D411" s="11"/>
+      <c r="E411" s="11"/>
+      <c r="F411" s="11"/>
     </row>
     <row r="412" spans="1:6" ht="21">
       <c r="A412" s="5" t="s">
@@ -7453,9 +7453,9 @@
       <c r="C412" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D412" s="13"/>
-      <c r="E412" s="13"/>
-      <c r="F412" s="13"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="11"/>
+      <c r="F412" s="11"/>
     </row>
     <row r="413" spans="1:6" ht="21">
       <c r="A413" s="5" t="s">
@@ -7467,9 +7467,9 @@
       <c r="C413" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D413" s="13"/>
-      <c r="E413" s="13"/>
-      <c r="F413" s="13"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="11"/>
+      <c r="F413" s="11"/>
     </row>
     <row r="414" spans="1:6" ht="21">
       <c r="A414" s="5" t="s">
@@ -7481,9 +7481,9 @@
       <c r="C414" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D414" s="13"/>
-      <c r="E414" s="13"/>
-      <c r="F414" s="13"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="11"/>
+      <c r="F414" s="11"/>
     </row>
     <row r="415" spans="1:6" ht="21">
       <c r="A415" s="5" t="s">
@@ -7495,9 +7495,9 @@
       <c r="C415" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D415" s="13"/>
-      <c r="E415" s="13"/>
-      <c r="F415" s="13"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="11"/>
+      <c r="F415" s="11"/>
     </row>
     <row r="416" spans="1:6" ht="21">
       <c r="A416" s="5" t="s">
@@ -7509,9 +7509,9 @@
       <c r="C416" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D416" s="13"/>
-      <c r="E416" s="13"/>
-      <c r="F416" s="13"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="11"/>
+      <c r="F416" s="11"/>
     </row>
     <row r="417" spans="1:6" ht="21">
       <c r="A417" s="5" t="s">
@@ -7523,9 +7523,9 @@
       <c r="C417" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D417" s="13"/>
-      <c r="E417" s="13"/>
-      <c r="F417" s="13"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="11"/>
+      <c r="F417" s="11"/>
     </row>
     <row r="418" spans="1:6" ht="21">
       <c r="A418" s="5" t="s">
@@ -7537,9 +7537,9 @@
       <c r="C418" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D418" s="13"/>
-      <c r="E418" s="13"/>
-      <c r="F418" s="13"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="11"/>
+      <c r="F418" s="11"/>
     </row>
     <row r="419" spans="1:6" ht="21">
       <c r="A419" s="5" t="s">
@@ -7551,9 +7551,9 @@
       <c r="C419" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D419" s="13"/>
-      <c r="E419" s="13"/>
-      <c r="F419" s="13"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="11"/>
+      <c r="F419" s="11"/>
     </row>
     <row r="420" spans="1:6" ht="21">
       <c r="A420" s="5" t="s">
@@ -7565,9 +7565,9 @@
       <c r="C420" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D420" s="13"/>
-      <c r="E420" s="13"/>
-      <c r="F420" s="13"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="11"/>
+      <c r="F420" s="11"/>
     </row>
     <row r="421" spans="1:6" ht="21">
       <c r="A421" s="5" t="s">
@@ -7579,9 +7579,9 @@
       <c r="C421" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D421" s="13"/>
-      <c r="E421" s="13"/>
-      <c r="F421" s="13"/>
+      <c r="D421" s="11"/>
+      <c r="E421" s="11"/>
+      <c r="F421" s="11"/>
     </row>
     <row r="422" spans="1:6" ht="21">
       <c r="A422" s="5" t="s">
@@ -7593,9 +7593,9 @@
       <c r="C422" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D422" s="13"/>
-      <c r="E422" s="13"/>
-      <c r="F422" s="13"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="11"/>
+      <c r="F422" s="11"/>
     </row>
     <row r="423" spans="1:6" ht="21">
       <c r="A423" s="5" t="s">
@@ -7607,9 +7607,9 @@
       <c r="C423" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D423" s="13"/>
-      <c r="E423" s="13"/>
-      <c r="F423" s="13"/>
+      <c r="D423" s="11"/>
+      <c r="E423" s="11"/>
+      <c r="F423" s="11"/>
     </row>
     <row r="424" spans="1:6" ht="21">
       <c r="A424" s="5" t="s">
@@ -7621,9 +7621,9 @@
       <c r="C424" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D424" s="13"/>
-      <c r="E424" s="13"/>
-      <c r="F424" s="13"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
     </row>
     <row r="425" spans="1:6" ht="21">
       <c r="A425" s="5" t="s">
@@ -7635,9 +7635,9 @@
       <c r="C425" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D425" s="13"/>
-      <c r="E425" s="13"/>
-      <c r="F425" s="13"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="11"/>
+      <c r="F425" s="11"/>
     </row>
     <row r="426" spans="1:6" ht="21">
       <c r="A426" s="5" t="s">
@@ -7649,9 +7649,9 @@
       <c r="C426" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D426" s="13"/>
-      <c r="E426" s="13"/>
-      <c r="F426" s="13"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="11"/>
+      <c r="F426" s="11"/>
     </row>
     <row r="427" spans="1:6" ht="21">
       <c r="A427" s="5" t="s">
@@ -7663,9 +7663,9 @@
       <c r="C427" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D427" s="13"/>
-      <c r="E427" s="13"/>
-      <c r="F427" s="13"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="11"/>
+      <c r="F427" s="11"/>
     </row>
     <row r="428" spans="1:6" ht="21">
       <c r="A428" s="5" t="s">
@@ -7677,9 +7677,9 @@
       <c r="C428" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D428" s="13"/>
-      <c r="E428" s="13"/>
-      <c r="F428" s="13"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="11"/>
+      <c r="F428" s="11"/>
     </row>
     <row r="429" spans="1:6" ht="21">
       <c r="A429" s="5" t="s">
@@ -7691,9 +7691,9 @@
       <c r="C429" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D429" s="13"/>
-      <c r="E429" s="13"/>
-      <c r="F429" s="13"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="11"/>
+      <c r="F429" s="11"/>
     </row>
     <row r="430" spans="1:6" ht="21">
       <c r="A430" s="5" t="s">
@@ -7705,9 +7705,9 @@
       <c r="C430" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D430" s="13"/>
-      <c r="E430" s="13"/>
-      <c r="F430" s="13"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="11"/>
+      <c r="F430" s="11"/>
     </row>
     <row r="431" spans="1:6" ht="21">
       <c r="A431" s="5" t="s">
@@ -7719,9 +7719,9 @@
       <c r="C431" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D431" s="13"/>
-      <c r="E431" s="13"/>
-      <c r="F431" s="13"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="11"/>
+      <c r="F431" s="11"/>
     </row>
     <row r="432" spans="1:6" ht="21">
       <c r="A432" s="5" t="s">
@@ -7733,9 +7733,9 @@
       <c r="C432" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D432" s="13"/>
-      <c r="E432" s="13"/>
-      <c r="F432" s="13"/>
+      <c r="D432" s="11"/>
+      <c r="E432" s="11"/>
+      <c r="F432" s="11"/>
     </row>
     <row r="433" spans="1:6" ht="21">
       <c r="A433" s="5" t="s">
@@ -7747,9 +7747,9 @@
       <c r="C433" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D433" s="13"/>
-      <c r="E433" s="13"/>
-      <c r="F433" s="13"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="11"/>
+      <c r="F433" s="11"/>
     </row>
     <row r="434" spans="1:6" ht="21">
       <c r="A434" s="5" t="s">
@@ -7761,9 +7761,9 @@
       <c r="C434" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D434" s="13"/>
-      <c r="E434" s="13"/>
-      <c r="F434" s="13"/>
+      <c r="D434" s="11"/>
+      <c r="E434" s="11"/>
+      <c r="F434" s="11"/>
     </row>
     <row r="435" spans="1:6" ht="21">
       <c r="A435" s="5" t="s">
@@ -7775,9 +7775,9 @@
       <c r="C435" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D435" s="13"/>
-      <c r="E435" s="13"/>
-      <c r="F435" s="13"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="11"/>
+      <c r="F435" s="11"/>
     </row>
     <row r="436" spans="1:6" ht="21">
       <c r="A436" s="5" t="s">
@@ -7789,9 +7789,9 @@
       <c r="C436" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D436" s="13"/>
-      <c r="E436" s="13"/>
-      <c r="F436" s="13"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="11"/>
+      <c r="F436" s="11"/>
     </row>
     <row r="437" spans="1:6" ht="21">
       <c r="A437" s="5" t="s">
@@ -7803,9 +7803,9 @@
       <c r="C437" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D437" s="13"/>
-      <c r="E437" s="13"/>
-      <c r="F437" s="13"/>
+      <c r="D437" s="11"/>
+      <c r="E437" s="11"/>
+      <c r="F437" s="11"/>
     </row>
     <row r="438" spans="1:6" ht="21">
       <c r="A438" s="5" t="s">
@@ -7817,9 +7817,9 @@
       <c r="C438" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D438" s="13"/>
-      <c r="E438" s="13"/>
-      <c r="F438" s="13"/>
+      <c r="D438" s="11"/>
+      <c r="E438" s="11"/>
+      <c r="F438" s="11"/>
     </row>
     <row r="439" spans="1:6" ht="21">
       <c r="A439" s="5" t="s">
@@ -7831,9 +7831,9 @@
       <c r="C439" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D439" s="13"/>
-      <c r="E439" s="13"/>
-      <c r="F439" s="13"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11"/>
+      <c r="F439" s="11"/>
     </row>
     <row r="440" spans="1:6" ht="21">
       <c r="A440" s="5" t="s">
@@ -7845,9 +7845,9 @@
       <c r="C440" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D440" s="13"/>
-      <c r="E440" s="13"/>
-      <c r="F440" s="13"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="11"/>
+      <c r="F440" s="11"/>
     </row>
     <row r="441" spans="1:6" ht="21">
       <c r="A441" s="5" t="s">
@@ -7859,9 +7859,9 @@
       <c r="C441" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D441" s="13"/>
-      <c r="E441" s="13"/>
-      <c r="F441" s="13"/>
+      <c r="D441" s="11"/>
+      <c r="E441" s="11"/>
+      <c r="F441" s="11"/>
     </row>
     <row r="442" spans="1:6" ht="21">
       <c r="A442" s="5" t="s">
@@ -7873,9 +7873,9 @@
       <c r="C442" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D442" s="13"/>
-      <c r="E442" s="13"/>
-      <c r="F442" s="13"/>
+      <c r="D442" s="11"/>
+      <c r="E442" s="11"/>
+      <c r="F442" s="11"/>
     </row>
     <row r="443" spans="1:6" ht="21">
       <c r="A443" s="5" t="s">
@@ -7887,9 +7887,9 @@
       <c r="C443" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D443" s="13"/>
-      <c r="E443" s="13"/>
-      <c r="F443" s="13"/>
+      <c r="D443" s="11"/>
+      <c r="E443" s="11"/>
+      <c r="F443" s="11"/>
     </row>
     <row r="444" spans="1:6" ht="21">
       <c r="A444" s="5" t="s">
@@ -7901,9 +7901,9 @@
       <c r="C444" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D444" s="13"/>
-      <c r="E444" s="13"/>
-      <c r="F444" s="13"/>
+      <c r="D444" s="11"/>
+      <c r="E444" s="11"/>
+      <c r="F444" s="11"/>
     </row>
     <row r="445" spans="1:6" ht="21">
       <c r="A445" s="5" t="s">
@@ -7915,9 +7915,9 @@
       <c r="C445" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D445" s="13"/>
-      <c r="E445" s="13"/>
-      <c r="F445" s="13"/>
+      <c r="D445" s="11"/>
+      <c r="E445" s="11"/>
+      <c r="F445" s="11"/>
     </row>
     <row r="446" spans="1:6" ht="21">
       <c r="A446" s="5" t="s">
@@ -7929,9 +7929,9 @@
       <c r="C446" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D446" s="13"/>
-      <c r="E446" s="13"/>
-      <c r="F446" s="13"/>
+      <c r="D446" s="11"/>
+      <c r="E446" s="11"/>
+      <c r="F446" s="11"/>
     </row>
     <row r="447" spans="1:6" ht="21">
       <c r="A447" s="5" t="s">
@@ -7943,9 +7943,9 @@
       <c r="C447" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D447" s="13"/>
-      <c r="E447" s="13"/>
-      <c r="F447" s="13"/>
+      <c r="D447" s="11"/>
+      <c r="E447" s="11"/>
+      <c r="F447" s="11"/>
     </row>
     <row r="448" spans="1:6" ht="21">
       <c r="A448" s="5" t="s">
@@ -7957,9 +7957,9 @@
       <c r="C448" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D448" s="13"/>
-      <c r="E448" s="13"/>
-      <c r="F448" s="13"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11"/>
+      <c r="F448" s="11"/>
     </row>
     <row r="449" spans="1:6" ht="21">
       <c r="A449" s="5" t="s">
@@ -7971,9 +7971,9 @@
       <c r="C449" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D449" s="13"/>
-      <c r="E449" s="13"/>
-      <c r="F449" s="13"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11"/>
+      <c r="F449" s="11"/>
     </row>
     <row r="450" spans="1:6" ht="21">
       <c r="A450" s="5" t="s">
@@ -7985,9 +7985,9 @@
       <c r="C450" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D450" s="13"/>
-      <c r="E450" s="13"/>
-      <c r="F450" s="13"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="11"/>
+      <c r="F450" s="11"/>
     </row>
     <row r="451" spans="1:6" ht="21">
       <c r="A451" s="5" t="s">
@@ -7999,9 +7999,9 @@
       <c r="C451" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D451" s="13"/>
-      <c r="E451" s="13"/>
-      <c r="F451" s="13"/>
+      <c r="D451" s="11"/>
+      <c r="E451" s="11"/>
+      <c r="F451" s="11"/>
     </row>
     <row r="452" spans="1:6" ht="21">
       <c r="A452" s="5" t="s">
@@ -8013,9 +8013,9 @@
       <c r="C452" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D452" s="13"/>
-      <c r="E452" s="13"/>
-      <c r="F452" s="13"/>
+      <c r="D452" s="11"/>
+      <c r="E452" s="11"/>
+      <c r="F452" s="11"/>
     </row>
     <row r="453" spans="1:6" ht="21">
       <c r="A453" s="5" t="s">
@@ -8027,9 +8027,9 @@
       <c r="C453" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D453" s="13"/>
-      <c r="E453" s="13"/>
-      <c r="F453" s="13"/>
+      <c r="D453" s="11"/>
+      <c r="E453" s="11"/>
+      <c r="F453" s="11"/>
     </row>
     <row r="454" spans="1:6" ht="21">
       <c r="A454" s="5" t="s">
@@ -8041,9 +8041,9 @@
       <c r="C454" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D454" s="13"/>
-      <c r="E454" s="13"/>
-      <c r="F454" s="13"/>
+      <c r="D454" s="11"/>
+      <c r="E454" s="11"/>
+      <c r="F454" s="11"/>
     </row>
     <row r="455" spans="1:6" ht="21">
       <c r="A455" s="5" t="s">
@@ -8055,9 +8055,9 @@
       <c r="C455" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D455" s="13"/>
-      <c r="E455" s="13"/>
-      <c r="F455" s="13"/>
+      <c r="D455" s="11"/>
+      <c r="E455" s="11"/>
+      <c r="F455" s="11"/>
     </row>
     <row r="456" spans="1:6" ht="21">
       <c r="A456" s="5" t="s">
@@ -8069,9 +8069,9 @@
       <c r="C456" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D456" s="13"/>
-      <c r="E456" s="13"/>
-      <c r="F456" s="13"/>
+      <c r="D456" s="11"/>
+      <c r="E456" s="11"/>
+      <c r="F456" s="11"/>
     </row>
     <row r="457" spans="1:6" ht="21">
       <c r="A457" s="5" t="s">
@@ -8083,9 +8083,9 @@
       <c r="C457" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D457" s="13"/>
-      <c r="E457" s="13"/>
-      <c r="F457" s="13"/>
+      <c r="D457" s="11"/>
+      <c r="E457" s="11"/>
+      <c r="F457" s="11"/>
     </row>
     <row r="458" spans="1:6" ht="21">
       <c r="A458" s="5" t="s">
@@ -8097,9 +8097,9 @@
       <c r="C458" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D458" s="13"/>
-      <c r="E458" s="13"/>
-      <c r="F458" s="13"/>
+      <c r="D458" s="11"/>
+      <c r="E458" s="11"/>
+      <c r="F458" s="11"/>
     </row>
     <row r="459" spans="1:6" ht="21">
       <c r="A459" s="5" t="s">
@@ -8111,9 +8111,9 @@
       <c r="C459" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D459" s="13"/>
-      <c r="E459" s="13"/>
-      <c r="F459" s="13"/>
+      <c r="D459" s="11"/>
+      <c r="E459" s="11"/>
+      <c r="F459" s="11"/>
     </row>
     <row r="460" spans="1:6" ht="21">
       <c r="A460" s="5" t="s">
@@ -8125,9 +8125,9 @@
       <c r="C460" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D460" s="13"/>
-      <c r="E460" s="13"/>
-      <c r="F460" s="13"/>
+      <c r="D460" s="11"/>
+      <c r="E460" s="11"/>
+      <c r="F460" s="11"/>
     </row>
     <row r="461" spans="1:6" ht="21">
       <c r="A461" s="5" t="s">
@@ -8139,9 +8139,9 @@
       <c r="C461" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D461" s="13"/>
-      <c r="E461" s="13"/>
-      <c r="F461" s="13"/>
+      <c r="D461" s="11"/>
+      <c r="E461" s="11"/>
+      <c r="F461" s="11"/>
     </row>
     <row r="462" spans="1:6" ht="21">
       <c r="A462" s="5" t="s">
@@ -8153,9 +8153,9 @@
       <c r="C462" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D462" s="13"/>
-      <c r="E462" s="13"/>
-      <c r="F462" s="13"/>
+      <c r="D462" s="11"/>
+      <c r="E462" s="11"/>
+      <c r="F462" s="11"/>
     </row>
     <row r="463" spans="1:6" ht="21">
       <c r="A463" s="5" t="s">
@@ -8167,9 +8167,9 @@
       <c r="C463" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D463" s="13"/>
-      <c r="E463" s="13"/>
-      <c r="F463" s="13"/>
+      <c r="D463" s="11"/>
+      <c r="E463" s="11"/>
+      <c r="F463" s="11"/>
     </row>
     <row r="464" spans="1:6" ht="21">
       <c r="A464" s="5" t="s">
@@ -8181,9 +8181,9 @@
       <c r="C464" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D464" s="13"/>
-      <c r="E464" s="13"/>
-      <c r="F464" s="13"/>
+      <c r="D464" s="11"/>
+      <c r="E464" s="11"/>
+      <c r="F464" s="11"/>
     </row>
     <row r="465" spans="1:6" ht="21">
       <c r="A465" s="5" t="s">
@@ -8195,9 +8195,9 @@
       <c r="C465" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D465" s="13"/>
-      <c r="E465" s="13"/>
-      <c r="F465" s="13"/>
+      <c r="D465" s="11"/>
+      <c r="E465" s="11"/>
+      <c r="F465" s="11"/>
     </row>
     <row r="466" spans="1:6" ht="21">
       <c r="A466" s="5" t="s">
@@ -8209,9 +8209,9 @@
       <c r="C466" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D466" s="13"/>
-      <c r="E466" s="13"/>
-      <c r="F466" s="13"/>
+      <c r="D466" s="11"/>
+      <c r="E466" s="11"/>
+      <c r="F466" s="11"/>
     </row>
     <row r="467" spans="1:6" ht="21">
       <c r="A467" s="5" t="s">
@@ -8223,9 +8223,9 @@
       <c r="C467" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D467" s="13"/>
-      <c r="E467" s="13"/>
-      <c r="F467" s="13"/>
+      <c r="D467" s="11"/>
+      <c r="E467" s="11"/>
+      <c r="F467" s="11"/>
     </row>
     <row r="468" spans="1:6" ht="21">
       <c r="A468" s="5" t="s">
@@ -8237,9 +8237,9 @@
       <c r="C468" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D468" s="13"/>
-      <c r="E468" s="13"/>
-      <c r="F468" s="13"/>
+      <c r="D468" s="11"/>
+      <c r="E468" s="11"/>
+      <c r="F468" s="11"/>
     </row>
     <row r="469" spans="1:6" ht="21">
       <c r="A469" s="5" t="s">
@@ -8251,24 +8251,24 @@
       <c r="C469" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D469" s="13"/>
-      <c r="E469" s="13"/>
-      <c r="F469" s="13"/>
+      <c r="D469" s="11"/>
+      <c r="E469" s="11"/>
+      <c r="F469" s="11"/>
     </row>
     <row r="470" spans="1:6" ht="21">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
-      <c r="D470" s="13"/>
-      <c r="E470" s="13"/>
-      <c r="F470" s="13"/>
+      <c r="D470" s="11"/>
+      <c r="E470" s="11"/>
+      <c r="F470" s="11"/>
     </row>
     <row r="471" spans="1:6" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
-      <c r="D471" s="13"/>
-      <c r="E471" s="13"/>
-      <c r="F471" s="13"/>
+      <c r="D471" s="11"/>
+      <c r="E471" s="11"/>
+      <c r="F471" s="11"/>
     </row>
     <row r="472" spans="1:6" ht="21">
       <c r="A472" s="5" t="s">
@@ -8280,9 +8280,9 @@
       <c r="C472" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D472" s="13"/>
-      <c r="E472" s="13"/>
-      <c r="F472" s="13"/>
+      <c r="D472" s="11"/>
+      <c r="E472" s="11"/>
+      <c r="F472" s="11"/>
     </row>
     <row r="473" spans="1:6" ht="21">
       <c r="A473" s="5" t="s">
@@ -8294,9 +8294,9 @@
       <c r="C473" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D473" s="13"/>
-      <c r="E473" s="13"/>
-      <c r="F473" s="13"/>
+      <c r="D473" s="11"/>
+      <c r="E473" s="11"/>
+      <c r="F473" s="11"/>
     </row>
     <row r="474" spans="1:6" ht="21">
       <c r="A474" s="5" t="s">
@@ -8308,9 +8308,9 @@
       <c r="C474" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D474" s="13"/>
-      <c r="E474" s="13"/>
-      <c r="F474" s="13"/>
+      <c r="D474" s="11"/>
+      <c r="E474" s="11"/>
+      <c r="F474" s="11"/>
     </row>
     <row r="475" spans="1:6" ht="21">
       <c r="A475" s="5" t="s">
@@ -8322,9 +8322,9 @@
       <c r="C475" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D475" s="13"/>
-      <c r="E475" s="13"/>
-      <c r="F475" s="13"/>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11"/>
+      <c r="F475" s="11"/>
     </row>
     <row r="476" spans="1:6" ht="21">
       <c r="A476" s="5" t="s">
@@ -8336,9 +8336,9 @@
       <c r="C476" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D476" s="13"/>
-      <c r="E476" s="13"/>
-      <c r="F476" s="13"/>
+      <c r="D476" s="11"/>
+      <c r="E476" s="11"/>
+      <c r="F476" s="11"/>
     </row>
     <row r="477" spans="1:6" ht="21">
       <c r="A477" s="5" t="s">
@@ -8350,9 +8350,9 @@
       <c r="C477" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D477" s="13"/>
-      <c r="E477" s="13"/>
-      <c r="F477" s="13"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11"/>
+      <c r="F477" s="11"/>
     </row>
     <row r="478" spans="1:6" ht="21">
       <c r="A478" s="5" t="s">
@@ -8364,9 +8364,9 @@
       <c r="C478" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D478" s="13"/>
-      <c r="E478" s="13"/>
-      <c r="F478" s="13"/>
+      <c r="D478" s="11"/>
+      <c r="E478" s="11"/>
+      <c r="F478" s="11"/>
     </row>
     <row r="479" spans="1:6" ht="21">
       <c r="A479" s="5" t="s">
@@ -8378,9 +8378,9 @@
       <c r="C479" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D479" s="13"/>
-      <c r="E479" s="13"/>
-      <c r="F479" s="13"/>
+      <c r="D479" s="11"/>
+      <c r="E479" s="11"/>
+      <c r="F479" s="11"/>
     </row>
     <row r="480" spans="1:6" ht="21">
       <c r="A480" s="5" t="s">
@@ -8392,9 +8392,9 @@
       <c r="C480" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D480" s="13"/>
-      <c r="E480" s="13"/>
-      <c r="F480" s="13"/>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11"/>
+      <c r="F480" s="11"/>
     </row>
     <row r="481" spans="1:6" ht="21">
       <c r="A481" s="5" t="s">
@@ -8406,17 +8406,482 @@
       <c r="C481" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13"/>
-      <c r="F481" s="13"/>
+      <c r="D481" s="11"/>
+      <c r="E481" s="11"/>
+      <c r="F481" s="11"/>
     </row>
     <row r="482" spans="1:6">
-      <c r="D482" s="13"/>
-      <c r="E482" s="13"/>
-      <c r="F482" s="13"/>
+      <c r="D482" s="11"/>
+      <c r="E482" s="11"/>
+      <c r="F482" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="477">
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="D204:F204"/>
+    <mergeCell ref="D205:F205"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D246:F246"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="D248:F248"/>
+    <mergeCell ref="D249:F249"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D244:F244"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="D256:F256"/>
+    <mergeCell ref="D257:F257"/>
+    <mergeCell ref="D258:F258"/>
+    <mergeCell ref="D259:F259"/>
+    <mergeCell ref="D260:F260"/>
+    <mergeCell ref="D251:F251"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="D255:F255"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="D267:F267"/>
+    <mergeCell ref="D268:F268"/>
+    <mergeCell ref="D269:F269"/>
+    <mergeCell ref="D270:F270"/>
+    <mergeCell ref="D261:F261"/>
+    <mergeCell ref="D262:F262"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="D265:F265"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="D280:F280"/>
+    <mergeCell ref="D271:F271"/>
+    <mergeCell ref="D272:F272"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="D281:F281"/>
+    <mergeCell ref="D282:F282"/>
+    <mergeCell ref="D283:F283"/>
+    <mergeCell ref="D284:F284"/>
+    <mergeCell ref="D285:F285"/>
+    <mergeCell ref="D296:F296"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="D298:F298"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="D300:F300"/>
+    <mergeCell ref="D291:F291"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="D293:F293"/>
+    <mergeCell ref="D294:F294"/>
+    <mergeCell ref="D295:F295"/>
+    <mergeCell ref="D306:F306"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="D301:F301"/>
+    <mergeCell ref="D302:F302"/>
+    <mergeCell ref="D303:F303"/>
+    <mergeCell ref="D304:F304"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="D316:F316"/>
+    <mergeCell ref="D317:F317"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="D315:F315"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D327:F327"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D349:F349"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D360:F360"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D370:F370"/>
+    <mergeCell ref="D361:F361"/>
+    <mergeCell ref="D362:F362"/>
+    <mergeCell ref="D363:F363"/>
+    <mergeCell ref="D364:F364"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="D371:F371"/>
+    <mergeCell ref="D372:F372"/>
+    <mergeCell ref="D373:F373"/>
+    <mergeCell ref="D374:F374"/>
+    <mergeCell ref="D375:F375"/>
+    <mergeCell ref="D386:F386"/>
+    <mergeCell ref="D387:F387"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D381:F381"/>
+    <mergeCell ref="D382:F382"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="D384:F384"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="D396:F396"/>
+    <mergeCell ref="D397:F397"/>
+    <mergeCell ref="D398:F398"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D393:F393"/>
+    <mergeCell ref="D394:F394"/>
+    <mergeCell ref="D395:F395"/>
+    <mergeCell ref="D406:F406"/>
+    <mergeCell ref="D407:F407"/>
+    <mergeCell ref="D408:F408"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="D410:F410"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="D404:F404"/>
+    <mergeCell ref="D405:F405"/>
+    <mergeCell ref="D416:F416"/>
+    <mergeCell ref="D417:F417"/>
+    <mergeCell ref="D418:F418"/>
+    <mergeCell ref="D419:F419"/>
+    <mergeCell ref="D420:F420"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="D412:F412"/>
+    <mergeCell ref="D413:F413"/>
+    <mergeCell ref="D414:F414"/>
+    <mergeCell ref="D415:F415"/>
+    <mergeCell ref="D426:F426"/>
+    <mergeCell ref="D427:F427"/>
+    <mergeCell ref="D428:F428"/>
+    <mergeCell ref="D429:F429"/>
+    <mergeCell ref="D430:F430"/>
+    <mergeCell ref="D421:F421"/>
+    <mergeCell ref="D422:F422"/>
+    <mergeCell ref="D423:F423"/>
+    <mergeCell ref="D424:F424"/>
+    <mergeCell ref="D425:F425"/>
+    <mergeCell ref="D436:F436"/>
+    <mergeCell ref="D437:F437"/>
+    <mergeCell ref="D438:F438"/>
+    <mergeCell ref="D439:F439"/>
+    <mergeCell ref="D440:F440"/>
+    <mergeCell ref="D431:F431"/>
+    <mergeCell ref="D432:F432"/>
+    <mergeCell ref="D433:F433"/>
+    <mergeCell ref="D434:F434"/>
+    <mergeCell ref="D435:F435"/>
+    <mergeCell ref="D446:F446"/>
+    <mergeCell ref="D447:F447"/>
+    <mergeCell ref="D448:F448"/>
+    <mergeCell ref="D449:F449"/>
+    <mergeCell ref="D450:F450"/>
+    <mergeCell ref="D441:F441"/>
+    <mergeCell ref="D442:F442"/>
+    <mergeCell ref="D443:F443"/>
+    <mergeCell ref="D444:F444"/>
+    <mergeCell ref="D445:F445"/>
+    <mergeCell ref="D456:F456"/>
+    <mergeCell ref="D457:F457"/>
+    <mergeCell ref="D458:F458"/>
+    <mergeCell ref="D459:F459"/>
+    <mergeCell ref="D460:F460"/>
+    <mergeCell ref="D451:F451"/>
+    <mergeCell ref="D452:F452"/>
+    <mergeCell ref="D453:F453"/>
+    <mergeCell ref="D454:F454"/>
+    <mergeCell ref="D455:F455"/>
+    <mergeCell ref="D466:F466"/>
+    <mergeCell ref="D467:F467"/>
+    <mergeCell ref="D468:F468"/>
+    <mergeCell ref="D469:F469"/>
+    <mergeCell ref="D470:F470"/>
+    <mergeCell ref="D461:F461"/>
+    <mergeCell ref="D462:F462"/>
+    <mergeCell ref="D463:F463"/>
+    <mergeCell ref="D464:F464"/>
+    <mergeCell ref="D465:F465"/>
     <mergeCell ref="D481:F481"/>
     <mergeCell ref="D482:F482"/>
     <mergeCell ref="D476:F476"/>
@@ -8429,478 +8894,13 @@
     <mergeCell ref="D473:F473"/>
     <mergeCell ref="D474:F474"/>
     <mergeCell ref="D475:F475"/>
-    <mergeCell ref="D466:F466"/>
-    <mergeCell ref="D467:F467"/>
-    <mergeCell ref="D468:F468"/>
-    <mergeCell ref="D469:F469"/>
-    <mergeCell ref="D470:F470"/>
-    <mergeCell ref="D461:F461"/>
-    <mergeCell ref="D462:F462"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="D464:F464"/>
-    <mergeCell ref="D465:F465"/>
-    <mergeCell ref="D456:F456"/>
-    <mergeCell ref="D457:F457"/>
-    <mergeCell ref="D458:F458"/>
-    <mergeCell ref="D459:F459"/>
-    <mergeCell ref="D460:F460"/>
-    <mergeCell ref="D451:F451"/>
-    <mergeCell ref="D452:F452"/>
-    <mergeCell ref="D453:F453"/>
-    <mergeCell ref="D454:F454"/>
-    <mergeCell ref="D455:F455"/>
-    <mergeCell ref="D446:F446"/>
-    <mergeCell ref="D447:F447"/>
-    <mergeCell ref="D448:F448"/>
-    <mergeCell ref="D449:F449"/>
-    <mergeCell ref="D450:F450"/>
-    <mergeCell ref="D441:F441"/>
-    <mergeCell ref="D442:F442"/>
-    <mergeCell ref="D443:F443"/>
-    <mergeCell ref="D444:F444"/>
-    <mergeCell ref="D445:F445"/>
-    <mergeCell ref="D436:F436"/>
-    <mergeCell ref="D437:F437"/>
-    <mergeCell ref="D438:F438"/>
-    <mergeCell ref="D439:F439"/>
-    <mergeCell ref="D440:F440"/>
-    <mergeCell ref="D431:F431"/>
-    <mergeCell ref="D432:F432"/>
-    <mergeCell ref="D433:F433"/>
-    <mergeCell ref="D434:F434"/>
-    <mergeCell ref="D435:F435"/>
-    <mergeCell ref="D426:F426"/>
-    <mergeCell ref="D427:F427"/>
-    <mergeCell ref="D428:F428"/>
-    <mergeCell ref="D429:F429"/>
-    <mergeCell ref="D430:F430"/>
-    <mergeCell ref="D421:F421"/>
-    <mergeCell ref="D422:F422"/>
-    <mergeCell ref="D423:F423"/>
-    <mergeCell ref="D424:F424"/>
-    <mergeCell ref="D425:F425"/>
-    <mergeCell ref="D416:F416"/>
-    <mergeCell ref="D417:F417"/>
-    <mergeCell ref="D418:F418"/>
-    <mergeCell ref="D419:F419"/>
-    <mergeCell ref="D420:F420"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="D412:F412"/>
-    <mergeCell ref="D413:F413"/>
-    <mergeCell ref="D414:F414"/>
-    <mergeCell ref="D415:F415"/>
-    <mergeCell ref="D406:F406"/>
-    <mergeCell ref="D407:F407"/>
-    <mergeCell ref="D408:F408"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="D410:F410"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="D404:F404"/>
-    <mergeCell ref="D405:F405"/>
-    <mergeCell ref="D396:F396"/>
-    <mergeCell ref="D397:F397"/>
-    <mergeCell ref="D398:F398"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D393:F393"/>
-    <mergeCell ref="D394:F394"/>
-    <mergeCell ref="D395:F395"/>
-    <mergeCell ref="D386:F386"/>
-    <mergeCell ref="D387:F387"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D381:F381"/>
-    <mergeCell ref="D382:F382"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="D384:F384"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="D371:F371"/>
-    <mergeCell ref="D372:F372"/>
-    <mergeCell ref="D373:F373"/>
-    <mergeCell ref="D374:F374"/>
-    <mergeCell ref="D375:F375"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D370:F370"/>
-    <mergeCell ref="D361:F361"/>
-    <mergeCell ref="D362:F362"/>
-    <mergeCell ref="D363:F363"/>
-    <mergeCell ref="D364:F364"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D360:F360"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D349:F349"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D327:F327"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="D316:F316"/>
-    <mergeCell ref="D317:F317"/>
-    <mergeCell ref="D318:F318"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="D313:F313"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="D315:F315"/>
-    <mergeCell ref="D306:F306"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="D301:F301"/>
-    <mergeCell ref="D302:F302"/>
-    <mergeCell ref="D303:F303"/>
-    <mergeCell ref="D304:F304"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="D296:F296"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="D298:F298"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="D300:F300"/>
-    <mergeCell ref="D291:F291"/>
-    <mergeCell ref="D292:F292"/>
-    <mergeCell ref="D293:F293"/>
-    <mergeCell ref="D294:F294"/>
-    <mergeCell ref="D295:F295"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="D288:F288"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="D290:F290"/>
-    <mergeCell ref="D281:F281"/>
-    <mergeCell ref="D282:F282"/>
-    <mergeCell ref="D283:F283"/>
-    <mergeCell ref="D284:F284"/>
-    <mergeCell ref="D285:F285"/>
-    <mergeCell ref="D276:F276"/>
-    <mergeCell ref="D277:F277"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="D280:F280"/>
-    <mergeCell ref="D271:F271"/>
-    <mergeCell ref="D272:F272"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="D275:F275"/>
-    <mergeCell ref="D266:F266"/>
-    <mergeCell ref="D267:F267"/>
-    <mergeCell ref="D268:F268"/>
-    <mergeCell ref="D269:F269"/>
-    <mergeCell ref="D270:F270"/>
-    <mergeCell ref="D261:F261"/>
-    <mergeCell ref="D262:F262"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="D264:F264"/>
-    <mergeCell ref="D265:F265"/>
-    <mergeCell ref="D256:F256"/>
-    <mergeCell ref="D257:F257"/>
-    <mergeCell ref="D258:F258"/>
-    <mergeCell ref="D259:F259"/>
-    <mergeCell ref="D260:F260"/>
-    <mergeCell ref="D251:F251"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="D255:F255"/>
-    <mergeCell ref="D246:F246"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="D248:F248"/>
-    <mergeCell ref="D249:F249"/>
-    <mergeCell ref="D250:F250"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D238:F238"/>
-    <mergeCell ref="D239:F239"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="D225:F225"/>
-    <mergeCell ref="D216:F216"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="D201:F201"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="D204:F204"/>
-    <mergeCell ref="D205:F205"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E9:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C481">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C6="No"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$C6="Yes"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C6="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
